--- a/[1] Peakfinder Results/RESULTS_MT10.xlsx
+++ b/[1] Peakfinder Results/RESULTS_MT10.xlsx
@@ -927,7 +927,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[21.354274756023095, 22.368364052453813, 25.28927332114892, 27.363904144935677, 20.633387798170453]</t>
+          <t>[21.354274756023095, 22.368364052453813, 25.28927332114892, 27.363904144935677, 19.09493132875054]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[14.902433240300214, 21.04065427489677, 16.841443918692814, 14.259777171543892, 21.711966099297534]</t>
+          <t>[14.902433240300214, 21.04065427489677, 16.0087878006546, 14.259777171543892, 21.711966099297534]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[24.181025088944793, 17.880179206974077, 18.170216951268205, 18.647068785733595, 14.602165039716693]</t>
+          <t>[24.181025088944793, 17.880179206974077, 17.04176148177874, 18.647068785733595, 14.602165039716693]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[59.46740559373287, 56.13682270742888, 63.48661924788408, 79.36716310901421, 73.45837648739328]</t>
+          <t>[59.46740559373287, 56.13682270742888, 63.48661924788408, 73.15072902640492, 73.45837648739328]</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[63.204661285199066, 55.51706699933933, 54.71734474168733, 50.508752083430956]</t>
+          <t>[63.204661285199066, 55.439645592097946, 53.37081229725737, 50.508752083430956]</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[55.08159658317091, 71.4191188676624, 68.75903249541855, 66.84629843808506, 57.950787928766346]</t>
+          <t>[55.08159658317091, 63.00804353146147, 53.80228124057076, 66.84629843808506, 57.950787928766346]</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[63.036524044688846, 39.54088328506091, 73.67622983733244]</t>
+          <t>[60.53484778197598, 39.54088328506091, 59.92940284684168]</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[46.0512156505894, 48.92153073948084, 65.34814501668384, 49.549555620347114, 50.11142298527082]</t>
+          <t>[46.0512156505894, 47.837784548801274, 65.34814501668384, 49.549555620347114, 50.11142298527082]</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[57.44026384991493, 60.35382172253554, 51.28071637439636, 44.902041730656755, 66.21297157472847]</t>
+          <t>[57.44026384991493, 56.65271797647126, 51.28071637439636, 44.902041730656755, 66.21297157472847]</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[45.54091087785364, 52.38687812255298, 66.06143718976028, 56.91099760604233]</t>
+          <t>[45.54091087785364, 52.38687812255298, 66.06143718976028, 54.521075718474414]</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[57.34368811213605, 53.47271728348086, 61.92221453757618, 61.19397768748849]</t>
+          <t>[57.34368811213605, 51.63813831269669, 56.18993284660438, 61.19397768748849]</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[42.70025608586146, 62.10575063878301, 56.082114489109635, 52.876963748705194]</t>
+          <t>[41.08692591113947, 58.22948995641961, 53.61459898025661, 52.876963748705194]</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[85.9817676332346, 58.66662790569536, 45.27730406547897, 52.859480470917056, 42.3553489726392]</t>
+          <t>[79.0572589516237, 55.67863530978381, 45.27730406547897, 52.859480470917056, 42.3553489726392]</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[49.588993265084696, 57.10799051589062, 65.03970944612618, 65.18111847220736]</t>
+          <t>[49.52195544805302, 57.10799051589062, 65.03970944612618, 65.18111847220736]</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[58.42915664620949, 55.573281221087335, 37.37969535827567, 57.69958168437809]</t>
+          <t>[58.42915664620949, 55.573281221087335, 34.812693647878625, 47.023773896563526]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[56.6261127928761, 46.34200643515348, 47.40829497955933, 39.05171785185907, 50.23895179892441]</t>
+          <t>[55.69914869143078, 46.34200643515348, 46.89531120159323, 39.05171785185907, 47.60202115907366]</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[51.41286447582568, 44.61259344885692, 53.34222671363232, 46.94033514645237]</t>
+          <t>[45.270990599922264, 44.61259344885692, 50.934518938146454, 46.94033514645237]</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[33.58541036377354, 16.294211100632673, 36.11461017986038, 38.025855286605186, 23.579189679736672]</t>
+          <t>[33.58541036377354, 16.294211100632673, 36.11461017986038, 38.025855286605186, 21.38117743083763]</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[49.14855705829987, 54.84314822060038, 51.18602653099795, 58.35226837887064, 38.44248490493598]</t>
+          <t>[49.14855705829987, 54.84314822060038, 49.32740625181738, 58.35226837887064, 38.44248490493598]</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[49.44412427640473, 44.581249129309256, 47.98107411399375, 68.71147131326745, 29.301917921464025]</t>
+          <t>[48.55293772170465, 44.581249129309256, 47.98107411399375, 68.71147131326745, 29.301917921464025]</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[49.28093351297413, 52.745687262400814, 34.92553308368847]</t>
+          <t>[49.28093351297413, 52.57564629883282, 34.92553308368847]</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[54.055142213465416, 48.22478506141005, 43.007177896838705, 48.97538178172256, 41.96257479240637]</t>
+          <t>[54.055142213465416, 48.22478506141005, 41.09311207874264, 48.97538178172256, 41.96257479240637]</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[43.64077173088757, 38.276072858049226, 42.0397720360471, 34.72537607373419, 46.737904925567825]</t>
+          <t>[43.64077173088757, 38.276072858049226, 38.10205866783328, 34.72537607373419, 46.737904925567825]</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[45.50548823384586, 44.78841285160979, 41.558832970925934, 46.92822102548639, 35.75938711050524]</t>
+          <t>[45.50548823384586, 44.78841285160979, 41.558832970925934, 45.333308857837714, 32.94466928497978]</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[12.10888185982731, 37.19044149181927, 34.24287982992647, 33.112492584958815, 35.726277648998334]</t>
+          <t>[12.10888185982731, 37.19044149181927, 34.00265652348031, 33.112492584958815, 35.726277648998334]</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[47.17073198588231, 40.53441510987648, 39.334064872235885, 12.391326965446531]</t>
+          <t>[43.72476599561995, 40.53441510987648, 37.22203177051449, 12.391326965446531]</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[53.716632429886346, 40.74259455526668, 45.18759485542458, 19.1608133156859, 39.79510427778134]</t>
+          <t>[53.716632429886346, 40.74259455526668, 45.18759485542458, 19.1608133156859, 38.242382153520964]</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[47.076770482422006, 35.357783192715615, 16.7773476889567, 42.56558495454067, 35.45563075130142]</t>
+          <t>[47.076770482422006, 35.357783192715615, 14.945050993178977, 42.56558495454067, 35.45563075130142]</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[55.35311926528348, 40.59298331099328, 20.368975890688922, 61.289457997614115]</t>
+          <t>[49.80975109423247, 40.59298331099328, 20.368975890688922, 61.289457997614115]</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[32.23136875551454, 29.72533240214466, 28.930820897410378, 27.557664604488952]</t>
+          <t>[32.23136875551454, 29.72533240214466, 23.67442826060673, 27.557664604488952]</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[24.63780130349243, 27.064526137677795, 35.69172441054776, 31.034857412847273, 26.212061419178106]</t>
+          <t>[24.63780130349243, 26.075394599846117, 35.69172441054776, 28.84652416870819, 26.212061419178106]</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>[31.393791483493178, 19.82217508828547, 32.49140668007263, 20.298828726398828, 22.101456637600545]</t>
+          <t>[31.393791483493178, 19.82217508828547, 32.49140668007263, 17.853173974955467, 22.101456637600545]</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[19.9185368727699, 31.983964695391077, 20.37462271814357, 23.180809752601014]</t>
+          <t>[19.9185368727699, 28.700616755119412, 20.37462271814357, 23.180809752601014]</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>[25.692978147514573, 24.907685820951816, 27.031723141049117, 22.74701525857098, 11.471471991465984]</t>
+          <t>[25.692978147514573, 24.907685820951816, 27.031723141049117, 22.74701525857098, 10.621523610133366]</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>[21.137025867293048, 19.835697891221155, 17.49498787560224, 28.038714130520354, 31.479759873533656]</t>
+          <t>[19.877369478846468, 19.835697891221155, 17.49498787560224, 28.038714130520354, 31.479759873533656]</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[34.99656570040681, 26.379475414771882, 31.961089612230428, 23.900203239255863, 20.578582475229]</t>
+          <t>[34.99656570040681, 26.379475414771882, 31.961089612230428, 23.900203239255863, 20.099318946519737]</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>[30.225517364047413, 23.138397095743404, 27.577985081945446, 32.283568258768476, 17.09153262093594]</t>
+          <t>[30.225517364047413, 19.813180567839648, 27.577985081945446, 32.283568258768476, 14.159785993845418]</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>[60.82418214033048, 25.667769647892197, 83.05649496134936]</t>
+          <t>[60.110405436795396, 25.667769647892197, 83.05649496134936]</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>[87.77053129855719, 53.4081615896647, 64.07291913471464]</t>
+          <t>[87.77053129855719, 49.01449516514487, 64.07291913471464]</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>[95.37481608003014, 94.89167662531054, 38.37063833639853, 71.98252269852833]</t>
+          <t>[95.37481608003014, 94.89167662531054, 35.9261065016526, 71.98252269852833]</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>[18.543686595831755, 43.66368431577592, 19.555463784267616, 58.96921761962875, 42.227283460897624]</t>
+          <t>[18.543686595831755, 43.66368431577592, 19.51857230454342, 58.96921761962875, 42.227283460897624]</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>[41.18336030127574, 16.833270663436114, 44.062583939284856, 74.44643335900724, 50.65181016655931]</t>
+          <t>[41.18336030127574, 16.833270663436114, 44.062583939284856, 64.12253246089706, 50.353793743218354]</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>[23.215735426558435, 28.56700145470895]</t>
+          <t>[23.215735426558435, 27.776979732352302]</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>[54.53279241896345, 49.990854170361125, 24.087369580643205, 38.84330792198249, 21.316187663573235]</t>
+          <t>[51.46268876749343, 45.20988463229099, 19.107313647695413, 38.84330792198249, 21.316187663573235]</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>[66.40468510584303, 105.95392788539786, 18.89280823014957, 49.697803969754496, 30.770096190232607]</t>
+          <t>[66.40468510584303, 105.95392788539786, 18.89280823014957, 48.829351735737475, 30.770096190232607]</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>[38.152499202176955, 65.13262370142128, 59.81611357999033, 31.656957283721173]</t>
+          <t>[36.29239503545866, 65.13262370142128, 59.81611357999033, 31.41767355163059]</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>[77.65188268491193, 25.98563213645289, 35.18900276253992, 54.80472640236846, 40.00008405226182]</t>
+          <t>[77.65188268491193, 25.98563213645289, 35.18900276253992, 54.80472640236846, 35.18122938557788]</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>[66.08783773399121, 31.639282290600583, 39.544197764736, 28.576996662999267]</t>
+          <t>[66.08783773399121, 31.58737947069843, 39.544197764736, 28.576996662999267]</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>[40.54913382958789, 30.324878718904163, 30.03792077674832, 33.152079174791105, 39.825100848482975]</t>
+          <t>[40.54913382958789, 26.463303009637507, 30.03792077674832, 33.152079174791105, 36.62014589754219]</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>[29.42599370498258, 24.253429874449, 28.231963383296744, 35.28590176036939, 24.314442628007708]</t>
+          <t>[29.42599370498258, 24.253429874449, 23.165659366584446, 35.28590176036939, 24.314442628007708]</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -7197,7 +7197,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>[23.56063356208429, 29.104806928115067, 27.033505827817876, 31.574898649053015, 33.34617838236379]</t>
+          <t>[23.351735169552818, 29.104806928115067, 27.033505827817876, 31.574898649053015, 33.34617838236379]</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>[27.18972495953502, 19.62248640020486, 30.94296859892838, 23.151240330273552, 32.95354450752225]</t>
+          <t>[27.18972495953502, 19.62248640020486, 27.0106623376445, 23.151240330273552, 32.95354450752225]</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>[21.060556638798502, 23.944443220003578, 32.52864682525739]</t>
+          <t>[17.916153519311457, 23.944443220003578, 32.52864682525739]</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7710,7 +7710,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>[75.99373125427044, 80.33373257947517, 80.27475339655322, 115.13509343382337, 98.63758955116539]</t>
+          <t>[75.99373125427044, 80.33373257947517, 80.27475339655322, 88.42913236028048, 92.1290615667283]</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>[82.65455977467637, 96.67026674486975, 92.06904071941736, 98.02117440313731]</t>
+          <t>[82.05311960593075, 96.67026674486975, 92.06904071941736, 98.02117440313731]</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>[90.3232009521228, 96.40295213274497, 93.76576107116456, 84.8325953481901, 86.7685766716059]</t>
+          <t>[75.2936963035829, 90.26971197661707, 93.76576107116456, 84.8325953481901, 86.7685766716059]</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7938,7 +7938,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>[170.95314336153376, 98.04346424614127, 86.44604436957155, 82.00022663118752]</t>
+          <t>[170.95314336153376, 90.38827610095333, 86.44604436957155, 73.88484358502475]</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>[80.30627809693698, 83.00127892541325, 96.9581555953483, 96.69204414062213, 90.58951326114098]</t>
+          <t>[80.30627809693698, 83.00127892541325, 94.95075297781537, 96.69204414062213, 90.58951326114098]</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>[91.31731877952282, 89.56941817999741, 91.56881547127625, 84.33933410805446, 79.80218553663225]</t>
+          <t>[87.00335231758307, 89.56941817999741, 87.44746970520434, 84.33933410805446, 79.73667259363992]</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>[89.46067394533465, 68.49137358532339, 84.25501888262183, 101.21401032065076, 94.22852535235188]</t>
+          <t>[89.46067394533465, 67.84752083865824, 84.25501888262183, 86.84306407945436, 94.22852535235188]</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>[87.82691075577605, 70.1544047620151, 87.7211876042632, 99.25216418083458, 95.64670324570803]</t>
+          <t>[87.82691075577605, 70.1544047620151, 72.60001560583665, 99.25216418083458, 95.64670324570803]</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>[90.06467516566438, 76.17268890704152, 75.66215689540563, 81.36253750945065]</t>
+          <t>[80.8846915770691, 76.17268890704152, 75.66215689540563, 79.82966085149963]</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>[89.8167636266355, 86.67816590770143, 96.20507588357682, 84.54359254806369, 79.26951729219105]</t>
+          <t>[75.30989858209145, 86.67816590770143, 96.20507588357682, 84.54359254806369, 79.26951729219105]</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>[96.49390912765926, 73.90817826116343, 82.70075981684661, 69.62792814158493]</t>
+          <t>[96.49390912765926, 73.47425008131282, 77.06866022560067, 64.9201471662916]</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>[79.30519547624338, 89.29214079155864, 83.28730492453577, 97.24244956471105, 74.21879751349503]</t>
+          <t>[77.41634737216903, 89.29214079155864, 83.28730492453577, 97.24244956471105, 71.37617362393055]</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8622,7 +8622,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>[91.06212593963492, 78.14336831127359, 86.45272836931679, 93.5477537619956]</t>
+          <t>[77.03034869995886, 78.14336831127359, 82.41263573403677, 89.33677761979732]</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>[81.13264768639021, 103.75821948515994, 97.79695635238922, 87.72893425432693, 82.06407620091146]</t>
+          <t>[77.98844195542213, 103.75821948515994, 97.79695635238922, 87.72893425432693, 73.8383176476518]</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -8850,7 +8850,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>[50.45365112694865, 22.072348946247864, 36.74467632953744]</t>
+          <t>[50.45365112694865, 22.009113255415887, 36.74467632953744]</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -8907,7 +8907,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>[69.73096996930529, 55.60299909387851, 39.517629909979036, 53.035970225385796, 48.48059103277187]</t>
+          <t>[69.73096996930529, 55.60299909387851, 37.025864132422825, 53.035970225385796, 48.48059103277187]</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -9135,7 +9135,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>[65.59220035061544, 44.49840791663598, 40.34154016321186, 35.111773289324844]</t>
+          <t>[65.59220035061544, 41.80411178686272, 40.34154016321186, 34.42707096123215]</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>[50.053325925775944, 55.46754449448963, 46.83828993278229, 54.53075627474537]</t>
+          <t>[50.053325925775944, 54.18882265823431, 46.83828993278229, 54.53075627474537]</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -9990,7 +9990,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>[60.25873800319736, 60.48569468170554, 47.94263009757184, 49.60872376972494, 56.76359569891682]</t>
+          <t>[60.25873800319736, 60.48569468170554, 42.3027296931186, 47.68096037862776, 56.76359569891682]</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>[50.58950822541044, 31.73156071993472, 54.59299741669123, 39.67477359662659]</t>
+          <t>[50.58950822541044, 31.73156071993472, 54.59299741669123, 37.42791112193683]</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>[68.19823150131346, 50.72534980711682, 43.92630537701281, 44.01959602570379, 45.982431852306505]</t>
+          <t>[68.19823150131346, 50.72534980711682, 36.60606834129295, 44.01959602570379, 45.982431852306505]</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>[68.79261310613362, 54.99305771150874, 44.23322244756983, 44.244233704934715, 38.80886227193451]</t>
+          <t>[68.79261310613362, 54.99305771150874, 43.23190887796638, 44.244233704934715, 38.80886227193451]</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>[48.035692065351746, 48.45878106973101, 39.83286197171259, 46.52705945420948]</t>
+          <t>[48.035692065351746, 48.45878106973101, 38.57017075177147, 46.52705945420948]</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -10560,7 +10560,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>[50.145745329984656, 52.25541578742293, 51.2099533589627, 41.66311571497989]</t>
+          <t>[50.145745329984656, 49.6719952750303, 49.36446614513956, 41.6299816516464]</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -10617,7 +10617,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>[57.857280848745035, 58.129612613075466, 44.937474645497396, 52.133408153084204, 45.20458580980537]</t>
+          <t>[57.857280848745035, 58.129612613075466, 44.937474645497396, 52.133408153084204, 42.83772043860671]</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>[57.23390227948497, 41.566624204448686, 45.659098784873024, 42.808013338089694, 44.476992343223145]</t>
+          <t>[57.23390227948497, 40.91426866452167, 45.659098784873024, 42.808013338089694, 44.476992343223145]</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>[49.848754804992986, 25.044080715223387, 37.58861993140807, 43.31543239264254]</t>
+          <t>[49.848754804992986, 25.044080715223387, 34.82187242593553, 43.31543239264254]</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -10845,7 +10845,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>[40.44347375302254, 43.417592702492655, 45.48012024600407, 47.75760437325402, 54.28551152262317]</t>
+          <t>[40.44347375302254, 43.417592702492655, 45.48012024600407, 47.75760437325402, 54.253969645333584]</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -11073,7 +11073,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>[53.2065801772237, 47.77432462178365, 48.94784236685602, 51.61775720306372, 47.61255454756477]</t>
+          <t>[53.2065801772237, 47.77432462178365, 45.96955384330168, 51.61775720306372, 47.61255454756477]</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -11130,7 +11130,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>[51.89345752112981, 57.20964029190276, 35.81030271740738, 46.156128299028936]</t>
+          <t>[51.89345752112981, 57.20964029190276, 35.29995524145951, 46.156128299028936]</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -11187,7 +11187,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>[61.9766647991309, 58.2233352748794, 61.98139544566903, 53.30163716063075, 37.261572671446274]</t>
+          <t>[61.9766647991309, 58.2233352748794, 61.98139544566903, 52.11777811910106, 37.261572671446274]</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>[53.68828376735293, 43.377391130437346, 48.74357657258133, 43.16703085209141, 44.608014736142835]</t>
+          <t>[53.68828376735293, 43.377391130437346, 48.74357657258133, 41.14268226154996, 44.27160649780228]</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -11529,7 +11529,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>[46.57173532700492, 56.080468547156684, 44.4725795868583, 60.98742522842256]</t>
+          <t>[46.57173532700492, 56.080468547156684, 44.02537247200663, 60.98742522842256]</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>[57.35624313697035, 53.71138958600298, 53.72219393881761, 38.81427548472851]</t>
+          <t>[49.73054714065087, 53.71138958600298, 53.72219393881761, 38.66205885125481]</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -11814,7 +11814,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>[164.15409737290275, 109.53324350786829, 168.31137431660648, 82.5716887489271, 49.205638414600955]</t>
+          <t>[81.89653300771957, 109.53324350786829, 141.2292735899164, 82.5716887489271, 49.205638414600955]</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -11928,7 +11928,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>[77.62472758532115, 94.81496137137239, 73.30514130970035, 82.95164910603083]</t>
+          <t>[76.83103824508484, 94.81496137137239, 73.30514130970035, 82.95164910603083]</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>[116.48300160080842, 112.51200310334104, 115.02778525887447, 108.49233395578281, 96.092850775741]</t>
+          <t>[116.48300160080842, 112.51200310334104, 115.02778525887447, 86.9917518038565, 96.092850775741]</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -12099,7 +12099,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>[119.59166161793986, 105.63466739118378, 114.9194608496889, 123.89391953506376, 96.05097011843537]</t>
+          <t>[119.59166161793986, 105.63466739118378, 83.31105115044693, 123.89391953506376, 96.05097011843537]</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -12156,7 +12156,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>[122.61401801841807, 116.7898611632601, 109.45108780870713, 79.38032638249942]</t>
+          <t>[72.30789729583627, 116.7898611632601, 109.45108780870713, 76.95943885884616]</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -12270,7 +12270,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>[121.23201910947378, 138.31914765306993, 88.79506977177493, 99.2607604187218]</t>
+          <t>[121.23201910947378, 86.82799092409577, 88.79506977177493, 99.2607604187218]</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -12327,7 +12327,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>[122.24700325705118, 107.62958521647937, 133.72387348710558, 97.75842998277534]</t>
+          <t>[122.24700325705118, 107.62958521647937, 120.01040460012594, 97.75842998277534]</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>[174.57197885136426, 98.53841043891951, 45.38927977980782, 51.63979626339621, 82.08703548120727]</t>
+          <t>[174.57197885136426, 98.53841043891951, 36.454676464093595, 45.34061720766669, 82.08703548120727]</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -12555,7 +12555,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>[103.88216487418556, 92.34903194277683, 74.98092399203962, 97.04134456299829, 86.06634832881973]</t>
+          <t>[88.53617278989339, 92.34903194277683, 74.98092399203962, 97.04134456299829, 86.06634832881973]</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -12669,7 +12669,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>[108.84970178339648, 97.2397734752379, 106.50785944206129]</t>
+          <t>[83.89607474020511, 97.2397734752379, 106.50785944206129]</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -12783,7 +12783,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>[111.84684750185242, 132.2980467286539, 84.72101899885605, 72.35496327461064, 101.39888314967175]</t>
+          <t>[111.84684750185242, 132.2980467286539, 84.6966674554803, 71.73788372755605, 98.19383232822268]</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>[43.94096479038257, 21.76242034320508, 17.78847674177972, 7.840086598496155]</t>
+          <t>[43.94096479038257, 20.09014005667451, 17.78847674177972, 7.840086598496155]</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -13068,7 +13068,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>[47.06599937196975, 28.525565954823104, 34.57592419896296, 29.865884446819543]</t>
+          <t>[47.06599937196975, 28.525565954823104, 34.57592419896296, 28.575084449788115]</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -13125,7 +13125,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>[33.98500949917872, 29.069519528151783, 33.90569525037896]</t>
+          <t>[31.279380145466384, 29.069519528151783, 33.90569525037896]</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -13410,7 +13410,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>[25.83791902140086, 36.002819145931184, 32.19618190968322, 9.143366041528598, 25.779647544293184]</t>
+          <t>[25.83791902140086, 36.002819145931184, 32.19618190968322, 9.143366041528598, 25.26231351811284]</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -13752,7 +13752,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>[33.23651827964486, 9.189353482020653, 34.69396429622334, 15.216845994575397, 17.779356779781597]</t>
+          <t>[33.23651827964486, 9.189353482020653, 34.69396429622334, 15.216845994575397, 10.757067596112488]</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -14094,7 +14094,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>[71.106232705292, 96.15495411619591, 65.67660216264514, 73.73411364944701, 61.260286764677915]</t>
+          <t>[71.106232705292, 96.15495411619591, 65.67660216264514, 73.73411364944701, 58.56095644866002]</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>[79.49945389433788, 74.65011819385437, 81.96621023415159, 70.75177230195435, 23.12673229225225]</t>
+          <t>[79.49945389433788, 73.56598326042445, 81.96621023415159, 70.75177230195435, 21.316844434874618]</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -14208,7 +14208,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>[68.28671736692192, 60.70508694870712, 76.88037494488009, 77.63875309291555, 76.37742410768058]</t>
+          <t>[68.28671736692192, 55.07209620061437, 76.88037494488009, 77.63875309291555, 76.37742410768058]</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -14265,7 +14265,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>[85.5380072789046, 61.335198580795144, 73.28250781145866, 73.61167975208603]</t>
+          <t>[85.5380072789046, 57.9871083012337, 73.28250781145866, 73.61167975208603]</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -14379,7 +14379,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>[74.99195348026711, 68.43345987392777, 71.99354090994024, 68.58767292963623, 61.98603767960617]</t>
+          <t>[74.99195348026711, 56.33004207504574, 71.99354090994024, 68.58767292963623, 61.98603767960617]</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>[91.98831993895153, 66.50627117219223, 59.477846493482744, 83.34426197412056, 78.23504770470348]</t>
+          <t>[91.98831993895153, 57.00210099398542, 58.14010223817689, 83.34426197412056, 78.23504770470348]</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -14493,7 +14493,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>[68.1189802709657, 84.95128832543377, 61.42911889220887, 62.466719884671306, 67.28984403810175]</t>
+          <t>[62.85715873024555, 84.95128832543377, 61.42911889220887, 62.466719884671306, 67.28984403810175]</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -14664,7 +14664,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>[62.46556628663662, 83.20783501107924, 63.88434226164987, 71.04225621971156]</t>
+          <t>[62.46556628663662, 83.20783501107924, 63.88434226164987, 66.17905940472042]</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -14778,7 +14778,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>[57.62385963194447, 77.97638195862618, 82.21744953012755, 45.897136344401254, 62.04125208817081]</t>
+          <t>[57.027621531913, 69.64199940988627, 82.21744953012755, 45.897136344401254, 61.28152545425849]</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -14835,7 +14835,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>[77.32101493747103, 71.53541296012651, 61.681046967780105, 73.84080054924254, 66.02533461184161]</t>
+          <t>[77.32101493747103, 71.53541296012651, 61.681046967780105, 71.74034522932703, 66.02533461184161]</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -14949,7 +14949,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>[135.30297566358792, 57.872110596682454, 37.018613003333506, 85.69976163053337, 99.6385708111309]</t>
+          <t>[135.30297566358792, 57.872110596682454, 35.98428714709064, 85.69976163053337, 99.6385708111309]</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -15063,7 +15063,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>[68.97138176414914, 108.54768337668654, 71.8738595091785, 76.65118722571502, 92.74044212824369]</t>
+          <t>[68.97138176414914, 108.54768337668654, 66.24501645625095, 76.65118722571502, 92.74044212824369]</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -15120,7 +15120,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>[86.91647945046755, 84.00427996112951, 74.31013778077963, 96.35215350338551, 95.64368912523202]</t>
+          <t>[75.63966705721867, 84.00427996112951, 73.78340628546596, 96.35215350338551, 95.64368912523202]</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -15234,7 +15234,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>[67.35130801068506, 67.5084936940074, 83.66884887075216, 78.00215877215844]</t>
+          <t>[63.002438891930524, 67.5084936940074, 83.66884887075216, 78.00215877215844]</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>[89.81463125247541, 87.10877811612251, 27.25411488679896, 33.721219343679365]</t>
+          <t>[87.50615012315468, 87.10877811612251, 27.026898094931926, 33.721219343679365]</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -15405,7 +15405,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>[82.3599687975118, 101.25496740655392, 63.610318997617554, 73.30371591169654, 51.91519670160345]</t>
+          <t>[82.3599687975118, 101.25496740655392, 63.610318997617554, 73.30371591169654, 48.77278589565109]</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -15462,7 +15462,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>[78.86391372020876, 77.28925940282522, 61.06432645060201, 62.00314332588221, 39.88340949174574]</t>
+          <t>[78.86391372020876, 77.28925940282522, 61.06432645060201, 62.00314332588221, 37.58519738757519]</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -15633,7 +15633,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>[92.93873214481565, 64.74416052020732, 66.81597835169788, 75.83411768101593]</t>
+          <t>[88.66963164176448, 56.04773165251359, 66.81597835169788, 75.83411768101593]</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -15690,7 +15690,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>[65.63662293155613, 64.54141868958624, 70.02037744934815, 42.81570821784362]</t>
+          <t>[65.63662293155613, 64.54141868958624, 70.02037744934815, 34.37908675492494]</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -15747,7 +15747,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>[65.48719276425226, 72.82367344469768, 97.83875836752136, 53.85699622181186, 83.18288276327388]</t>
+          <t>[63.25391081793266, 72.82367344469768, 97.83875836752136, 53.85699622181186, 83.18288276327388]</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -15804,7 +15804,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>[70.16383932894892, 96.11250123141372, 93.87118231453219, 109.56411352497003]</t>
+          <t>[60.90163482827959, 96.11250123141372, 93.87118231453219, 109.56411352497003]</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -15918,7 +15918,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>[50.24312354134072, 55.47360611191227, 48.08882811168373, 46.66567113454356, 47.57247947680062]</t>
+          <t>[50.24312354134072, 55.47360611191227, 39.878192381877895, 46.66567113454356, 47.57247947680062]</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -16089,7 +16089,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>[46.43457444310501, 55.19299813932047, 45.99868585656514, 45.00842954336893, 47.56077904336809]</t>
+          <t>[46.43457444310501, 55.19299813932047, 45.99868585656514, 37.83849047980037, 47.56077904336809]</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>[49.07059258251416, 34.581227798377455, 43.300768276921474, 48.51274967937045, 49.02916034566615]</t>
+          <t>[49.07059258251416, 34.581227798377455, 43.300768276921474, 48.51274967937045, 40.046004264686516]</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -16260,7 +16260,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>[49.73208016186208, 56.17176043761566, 58.00084220897916, 60.91147181343532, 51.97089389843384]</t>
+          <t>[49.73208016186208, 56.17176043761566, 58.00084220897916, 50.819944475453, 51.97089389843384]</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -16488,7 +16488,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>[44.27727036355917, 51.55442040326368, 47.52520957221866, 47.26140829645107, 44.33448034540827]</t>
+          <t>[44.27727036355917, 51.55442040326368, 38.175384900348526, 47.26140829645107, 44.33448034540827]</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -16545,7 +16545,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>[33.96710712037723, 42.56879730187207, 47.97632907718243, 46.41476514837381, 46.64547688838108]</t>
+          <t>[30.892863115485085, 42.56879730187207, 47.97632907718243, 46.41476514837381, 46.64547688838108]</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -17286,7 +17286,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>[29.272113127876672, 36.099343205920704, 51.928061510807936, 37.706867209913284]</t>
+          <t>[29.272113127876672, 35.616007050100755, 51.928061510807936, 37.706867209913284]</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -17457,7 +17457,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>[42.33322680677477, 25.959766117198814, 19.524817423849516]</t>
+          <t>[40.73852513861852, 25.959766117198814, 18.838480057669845]</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -17514,7 +17514,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>[36.08686016492023, 6.479415599339453, 46.52574332088657, 48.28605990576855]</t>
+          <t>[36.08686016492023, 4.918848123877263, 46.52574332088657, 48.28605990576855]</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -17856,7 +17856,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>[26.697149473677893, 37.001945138657334, 36.78959661085996, 38.03859802174037, 34.24733833384139]</t>
+          <t>[26.697149473677893, 36.328778818691646, 36.78959661085996, 38.03859802174037, 34.24733833384139]</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -18027,7 +18027,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>[57.2457110551956, 43.9596559558626, 85.5443462773504, 49.580839158724494]</t>
+          <t>[57.2457110551956, 43.9596559558626, 85.5443462773504, 49.20945923522311]</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -18141,7 +18141,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>[120.40725590392015, 31.08860863557372, 20.76157369483619, 51.628102776073945, 59.242639353910924]</t>
+          <t>[58.135006463283105, 31.08860863557372, 20.76157369483619, 48.862020760221505, 59.242639353910924]</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>[81.75776307937315, 59.37665476716863, 96.32355637596511, 70.71988460850342, 60.409884090203704]</t>
+          <t>[65.89334403066414, 59.37665476716863, 96.32355637596511, 70.71988460850342, 60.409884090203704]</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -18255,7 +18255,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>[78.72095325531586, 45.68986910042533, 55.607620001420244, 59.818818017923405]</t>
+          <t>[78.72095325531586, 44.48464974447506, 55.607620001420244, 59.818818017923405]</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -18426,7 +18426,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>[97.13758299578133, 54.904378218281394, 24.795116450062572, 54.46773190827057, 24.685914861523337]</t>
+          <t>[97.13758299578133, 54.904378218281394, 24.795116450062572, 53.2402403887806, 24.685914861523337]</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -18654,7 +18654,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>[46.3442501813324, 46.09751491962852, 119.00949593850072, 45.18031608718521]</t>
+          <t>[42.04662175375441, 38.91773836907518, 119.00949593850072, 45.18031608718521]</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -18711,7 +18711,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>[89.29709522015271, 28.66789684093662, 31.847065971846902, 63.530875320072646, 21.18109784991419]</t>
+          <t>[89.29709522015271, 27.503849295265052, 31.847065971846902, 63.530875320072646, 21.18109784991419]</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -18768,7 +18768,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>[85.04429012164658, 80.0186420159745, 16.106439373491998, 23.344952568994742, 23.55443951653787]</t>
+          <t>[82.19510425581146, 79.30650179508116, 16.106439373491998, 23.344952568994742, 23.55443951653787]</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -18882,7 +18882,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>[43.27867351560506, 92.39320314704983, 51.02067354043928, 46.566116405550304, 31.720409291754947]</t>
+          <t>[43.27867351560506, 92.39320314704983, 51.02067354043928, 46.566116405550304, 29.358900304804372]</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">

--- a/[1] Peakfinder Results/RESULTS_MT10.xlsx
+++ b/[1] Peakfinder Results/RESULTS_MT10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K325"/>
+  <dimension ref="A1:J325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,6 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>AUC</t>
         </is>
       </c>
@@ -538,12 +533,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[30.78, 26.14, 20.41, 18.78, 33.41]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[818.58, 927.47, 741.52, 875.51, 1108.61]</t>
+          <t>[547.28, 653.54, 478.78, 560.1, 765.52]</t>
         </is>
       </c>
     </row>
@@ -595,12 +585,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[14.3, 33.14, 19.8, 16.9]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[717.97, 1322.05, 849.25, 797.67]</t>
+          <t>[414.06, 847.48, 573.41, 471.7]</t>
         </is>
       </c>
     </row>
@@ -652,12 +637,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[9.9, 20.25]</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>[540.98, 450.25]</t>
+          <t>[383.85, 257.66]</t>
         </is>
       </c>
     </row>
@@ -709,12 +689,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[22.47, 22.53, 23.65, 16.74, 39.84]</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>[699.7, 887.53, 860.53, 631.5, 1666.49]</t>
+          <t>[452.18, 575.24, 559.34, 462.11, 1070.89]</t>
         </is>
       </c>
     </row>
@@ -766,12 +741,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[39.32, 32.46, 18.0, 11.38]</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>[848.11, 798.0, 600.02, 783.67]</t>
+          <t>[582.16, 538.2, 383.12, 435.23]</t>
         </is>
       </c>
     </row>
@@ -823,12 +793,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[25.57, 31.28, 24.35, 34.07, 16.17]</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>[1022.91, 913.74, 803.27, 1113.53, 695.28]</t>
+          <t>[680.0, 600.54, 510.84, 728.48, 417.63]</t>
         </is>
       </c>
     </row>
@@ -880,12 +845,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[45.06, 23.1, 30.36, 20.6, 20.88]</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>[1560.3, 810.03, 1032.31, 805.15, 735.45]</t>
+          <t>[1046.8, 524.34, 721.44, 538.94, 464.43]</t>
         </is>
       </c>
     </row>
@@ -927,7 +887,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[21.354274756023095, 22.368364052453813, 25.28927332114892, 27.363904144935677, 19.09493132875054]</t>
+          <t>[21.354274756023095, 22.368364052453813, 25.28927332114892, 27.363904144935677, 20.633387798170453]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -937,12 +897,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[28.62, 22.17, 22.4, 26.11, 35.26]</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>[780.84, 841.29, 892.12, 1023.26, 1124.86]</t>
+          <t>[524.7, 562.06, 547.77, 622.45, 755.14]</t>
         </is>
       </c>
     </row>
@@ -984,7 +939,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[14.902433240300214, 21.04065427489677, 16.0087878006546, 14.259777171543892, 21.711966099297534]</t>
+          <t>[14.902433240300214, 21.04065427489677, 16.841443918692814, 14.259777171543892, 21.711966099297534]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -994,12 +949,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[16.6, 23.27, 17.76, 10.96, 16.95]</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>[589.43, 751.77, 662.67, 536.78, 631.94]</t>
+          <t>[393.98, 425.76, 431.68, 335.39, 388.65]</t>
         </is>
       </c>
     </row>
@@ -1051,12 +1001,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[15.69, 14.05, 5.42]</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>[757.65, 704.45, 579.96]</t>
+          <t>[425.82, 425.46, 370.14]</t>
         </is>
       </c>
     </row>
@@ -1108,12 +1053,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[22.16, 19.96, 20.34]</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>[607.18, 618.9, 620.71]</t>
+          <t>[423.44, 414.54, 397.33]</t>
         </is>
       </c>
     </row>
@@ -1165,12 +1105,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[27.28, 16.95, 12.5, 19.97, 18.84]</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>[998.43, 540.79, 715.55, 572.78, 732.84]</t>
+          <t>[642.09, 356.37, 400.97, 339.91, 496.54]</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1147,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[24.181025088944793, 17.880179206974077, 17.04176148177874, 18.647068785733595, 14.602165039716693]</t>
+          <t>[24.181025088944793, 17.880179206974077, 18.170216951268205, 18.647068785733595, 14.602165039716693]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1222,12 +1157,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[14.66, 2.79, 20.7, 16.5, 20.69]</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>[685.68, 604.27, 815.25, 535.13, 630.16]</t>
+          <t>[382.22, 362.71, 511.32, 320.94, 421.24]</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1209,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[17.24, 14.77, 35.96, 15.15, 14.22]</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>[651.68, 744.23, 1067.37, 526.95, 625.02]</t>
+          <t>[420.09, 466.35, 700.87, 313.75, 392.79]</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1261,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[17.48, 13.89, 25.85, 26.75]</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>[532.58, 948.91, 742.38, 544.35]</t>
+          <t>[337.91, 501.54, 424.53, 331.41]</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1313,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[26.3, 13.19, 18.88, 4.57, 36.15]</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>[894.94, 666.08, 648.38, 391.39, 938.67]</t>
+          <t>[557.7, 401.07, 387.13, 248.01, 652.7]</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1365,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[17.72, 20.6, 23.17, 21.02, 14.61]</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>[637.28, 636.79, 813.14, 661.36, 598.45]</t>
+          <t>[425.02, 392.0, 510.78, 450.4, 393.94]</t>
         </is>
       </c>
     </row>
@@ -1507,12 +1417,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[40.12, 14.7, 7.55, 21.62]</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>[1680.73, 739.63, 673.19, 730.77]</t>
+          <t>[1086.83, 458.14, 401.94, 497.59]</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1459,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[59.46740559373287, 56.13682270742888, 63.48661924788408, 73.15072902640492, 73.45837648739328]</t>
+          <t>[59.46740559373287, 56.13682270742888, 63.48661924788408, 79.36716310901421, 73.45837648739328]</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1564,12 +1469,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[53.6, 47.55, 46.6, 60.98, 43.33]</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>[3563.43, 3106.72, 3724.65, 5078.9, 3702.37]</t>
+          <t>[2312.32, 1991.05, 2372.04, 3031.94, 2631.06]</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1511,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[63.204661285199066, 55.439645592097946, 53.37081229725737, 50.508752083430956]</t>
+          <t>[63.204661285199066, 55.51706699933933, 54.71734474168733, 50.508752083430956]</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1621,12 +1521,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[42.39, 42.39, 47.51, 53.02]</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>[3057.12, 3089.81, 3365.6, 3559.31]</t>
+          <t>[2016.64, 2041.89, 2326.92, 2248.99]</t>
         </is>
       </c>
     </row>
@@ -1678,12 +1573,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[44.4, 31.65, 19.51, 21.87, 25.86]</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>[1787.61, 2077.57, 1619.82, 1430.57, 1433.74]</t>
+          <t>[1057.92, 1323.7, 978.28, 988.01, 972.57]</t>
         </is>
       </c>
     </row>
@@ -1735,12 +1625,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[42.22, 43.89, 44.71, 5.81, 55.96]</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>[2386.41, 2960.58, 3009.1, 2997.78, 3538.4]</t>
+          <t>[1521.74, 1881.14, 1952.11, 1692.26, 2192.12]</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1667,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[55.08159658317091, 63.00804353146147, 53.80228124057076, 66.84629843808506, 57.950787928766346]</t>
+          <t>[55.08159658317091, 71.4191188676624, 68.75903249541855, 66.84629843808506, 57.950787928766346]</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1792,12 +1677,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[47.19, 46.07, 31.64, 40.67, 40.42]</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>[3295.47, 3868.18, 3189.54, 3690.01, 2970.45]</t>
+          <t>[2031.69, 2420.68, 2024.78, 2408.18, 1854.11]</t>
         </is>
       </c>
     </row>
@@ -1849,12 +1729,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[13.22, 72.15, 89.43, 44.13, 34.82]</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>[1303.57, 3970.13, 5566.06, 3241.83, 3130.18]</t>
+          <t>[1047.88, 2327.94, 3316.75, 1934.79, 1974.37]</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1771,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[60.53484778197598, 39.54088328506091, 59.92940284684168]</t>
+          <t>[63.036524044688846, 39.54088328506091, 73.67622983733244]</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1906,12 +1781,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[43.28, 28.85, 24.0]</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>[3474.14, 1672.35, 2875.17]</t>
+          <t>[2163.07, 1043.44, 1945.13]</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1823,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[46.0512156505894, 47.837784548801274, 65.34814501668384, 49.549555620347114, 50.11142298527082]</t>
+          <t>[46.0512156505894, 48.92153073948084, 65.34814501668384, 49.549555620347114, 50.11142298527082]</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1963,12 +1833,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[75.34, 44.2, 35.51, 52.54, 46.78]</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>[3742.21, 2823.56, 2431.94, 3335.43, 2882.49]</t>
+          <t>[2204.22, 1911.57, 1474.38, 2137.98, 1872.47]</t>
         </is>
       </c>
     </row>
@@ -2010,7 +1875,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[57.44026384991493, 56.65271797647126, 51.28071637439636, 44.902041730656755, 66.21297157472847]</t>
+          <t>[57.44026384991493, 60.35382172253554, 51.28071637439636, 44.902041730656755, 66.21297157472847]</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2020,12 +1885,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[67.72, 51.24, 34.6, 28.27, 35.96]</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>[3636.59, 3633.18, 2007.9, 2559.68, 3058.68]</t>
+          <t>[2221.91, 2473.78, 1374.19, 1578.91, 1944.37]</t>
         </is>
       </c>
     </row>
@@ -2067,7 +1927,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[45.54091087785364, 52.38687812255298, 66.06143718976028, 54.521075718474414]</t>
+          <t>[45.54091087785364, 52.38687812255298, 66.06143718976028, 56.91099760604233]</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2077,12 +1937,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[57.68, 38.33, 35.73, 64.37]</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>[3302.36, 2941.95, 2416.26, 3917.8]</t>
+          <t>[2106.35, 1936.01, 1485.0, 2575.6]</t>
         </is>
       </c>
     </row>
@@ -2134,12 +1989,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[80.14, 37.57, 44.33, 43.99, 24.91]</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>[4029.71, 2066.16, 2454.56, 3450.89, 1724.26]</t>
+          <t>[2273.19, 1406.17, 1631.29, 2216.3, 1218.44]</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2031,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[57.34368811213605, 51.63813831269669, 56.18993284660438, 61.19397768748849]</t>
+          <t>[57.34368811213605, 53.47271728348086, 61.92221453757618, 61.19397768748849]</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2191,12 +2041,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[38.17, 48.87, 42.99, 44.93]</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>[2937.78, 3363.15, 3297.83, 2904.88]</t>
+          <t>[1832.51, 2225.7, 2078.07, 1851.81]</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2083,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[41.08692591113947, 58.22948995641961, 53.61459898025661, 52.876963748705194]</t>
+          <t>[42.70025608586146, 62.10575063878301, 56.082114489109635, 52.876963748705194]</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2248,12 +2093,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>[67.0, 51.06, 52.04, 41.32]</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>[3398.81, 3642.85, 3395.46, 2597.78]</t>
+          <t>[2057.68, 2395.45, 2233.42, 1758.22]</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2135,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[79.0572589516237, 55.67863530978381, 45.27730406547897, 52.859480470917056, 42.3553489726392]</t>
+          <t>[85.9817676332346, 58.66662790569536, 45.27730406547897, 52.859480470917056, 42.3553489726392]</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2305,12 +2145,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>[68.17, 47.96, 54.06, 44.1, 11.79]</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>[6069.61, 3347.33, 2539.36, 3074.71, 906.56]</t>
+          <t>[3759.36, 2200.05, 1559.96, 1919.04, 700.66]</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2197,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>[36.83, 33.58, 39.88, 42.08]</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>[2333.51, 2140.95, 2910.59, 3607.79]</t>
+          <t>[1445.66, 1266.37, 1835.09, 2372.78]</t>
         </is>
       </c>
     </row>
@@ -2419,12 +2249,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>[47.76, 53.68, 41.91, 35.62, 43.19]</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>[3760.41, 3979.86, 1898.1, 2221.5, 2875.09]</t>
+          <t>[2520.15, 2723.46, 1159.53, 1509.03, 1849.3]</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2291,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[49.52195544805302, 57.10799051589062, 65.03970944612618, 65.18111847220736]</t>
+          <t>[49.588993265084696, 57.10799051589062, 65.03970944612618, 65.18111847220736]</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2476,12 +2301,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>[78.52, 32.26, 35.67, 37.5]</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>[4346.92, 2104.75, 3146.79, 3011.29]</t>
+          <t>[2773.51, 1259.64, 1951.32, 2060.16]</t>
         </is>
       </c>
     </row>
@@ -2523,7 +2343,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[58.42915664620949, 55.573281221087335, 34.812693647878625, 47.023773896563526]</t>
+          <t>[58.42915664620949, 55.573281221087335, 37.37969535827567, 57.69958168437809]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2533,12 +2353,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[41.12, 41.67, 44.84, 44.68]</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>[3055.12, 3127.55, 2347.84, 3056.53]</t>
+          <t>[1951.25, 1960.1, 1537.63, 1896.38]</t>
         </is>
       </c>
     </row>
@@ -2580,7 +2395,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[55.69914869143078, 46.34200643515348, 46.89531120159323, 39.05171785185907, 47.60202115907366]</t>
+          <t>[56.6261127928761, 46.34200643515348, 47.40829497955933, 39.05171785185907, 50.23895179892441]</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2590,12 +2405,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>[30.32, 51.62, 36.98, 13.88, 38.3]</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>[2140.69, 3012.86, 2391.2, 1029.9, 2596.43]</t>
+          <t>[1366.06, 2056.77, 1558.2, 703.5, 1686.73]</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2447,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[45.270990599922264, 44.61259344885692, 50.934518938146454, 46.94033514645237]</t>
+          <t>[51.41286447582568, 44.61259344885692, 53.34222671363232, 46.94033514645237]</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2647,12 +2457,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>[43.44, 36.84, 48.47, 38.78]</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>[2734.19, 2234.77, 3106.58, 2208.64]</t>
+          <t>[1731.04, 1394.15, 1868.71, 1428.4]</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2499,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[33.58541036377354, 16.294211100632673, 36.11461017986038, 38.025855286605186, 21.38117743083763]</t>
+          <t>[33.58541036377354, 16.294211100632673, 36.11461017986038, 38.025855286605186, 23.579189679736672]</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2704,12 +2509,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>[26.9, 16.2, 11.28, 14.68, 31.36]</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>[1285.94, 596.07, 1195.15, 691.94, 1136.72]</t>
+          <t>[840.42, 374.54, 570.04, 558.55, 772.0]</t>
         </is>
       </c>
     </row>
@@ -2761,12 +2561,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[34.3, 42.72, 26.95, 35.52]</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>[2091.69, 2609.41, 1829.36, 1992.74]</t>
+          <t>[1293.51, 1709.35, 1217.62, 1262.03]</t>
         </is>
       </c>
     </row>
@@ -2808,7 +2603,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[49.14855705829987, 54.84314822060038, 49.32740625181738, 58.35226837887064, 38.44248490493598]</t>
+          <t>[49.14855705829987, 54.84314822060038, 51.18602653099795, 58.35226837887064, 38.44248490493598]</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2818,12 +2613,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>[34.78, 42.44, 44.39, 44.76, 35.86]</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>[2304.88, 2772.01, 2830.36, 3333.26, 1821.94]</t>
+          <t>[1503.3, 1777.85, 1742.15, 2119.01, 1123.88]</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2655,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[48.55293772170465, 44.581249129309256, 47.98107411399375, 68.71147131326745, 29.301917921464025]</t>
+          <t>[49.44412427640473, 44.581249129309256, 47.98107411399375, 68.71147131326745, 29.301917921464025]</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2875,12 +2665,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>[40.98, 41.94, 25.13, 7.8, 33.7]</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>[2665.98, 2209.59, 1556.25, 1961.23, 1040.1]</t>
+          <t>[1615.61, 1392.3, 980.72, 1429.44, 560.28]</t>
         </is>
       </c>
     </row>
@@ -2922,7 +2707,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[49.28093351297413, 52.57564629883282, 34.92553308368847]</t>
+          <t>[49.28093351297413, 52.745687262400814, 34.92553308368847]</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2932,12 +2717,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>[42.63, 40.74, 33.94]</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>[2493.02, 2603.65, 1475.42]</t>
+          <t>[1632.23, 1589.54, 978.4]</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2759,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[54.055142213465416, 48.22478506141005, 41.09311207874264, 48.97538178172256, 41.96257479240637]</t>
+          <t>[54.055142213465416, 48.22478506141005, 43.007177896838705, 48.97538178172256, 41.96257479240637]</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2989,12 +2769,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>[35.65, 37.44, 33.53, 30.54, 22.68]</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>[1970.61, 1831.2, 2257.33, 1788.95, 1364.64]</t>
+          <t>[1295.92, 1077.18, 1474.34, 1143.51, 796.35]</t>
         </is>
       </c>
     </row>
@@ -3036,7 +2811,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[43.64077173088757, 38.276072858049226, 38.10205866783328, 34.72537607373419, 46.737904925567825]</t>
+          <t>[43.64077173088757, 38.276072858049226, 42.0397720360471, 34.72537607373419, 46.737904925567825]</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3046,12 +2821,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>[37.65, 24.91, 32.85, 27.33, 31.55]</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>[2423.69, 1393.29, 1945.53, 1421.74, 1570.37]</t>
+          <t>[1546.77, 941.69, 1268.91, 938.66, 1017.24]</t>
         </is>
       </c>
     </row>
@@ -3093,7 +2863,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[45.50548823384586, 44.78841285160979, 41.558832970925934, 45.333308857837714, 32.94466928497978]</t>
+          <t>[45.50548823384586, 44.78841285160979, 41.558832970925934, 46.92822102548639, 35.75938711050524]</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3103,12 +2873,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>[42.67, 20.22, 35.58, 36.92, 37.22]</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>[2527.21, 1570.26, 1526.5, 2511.11, 2103.9]</t>
+          <t>[1658.05, 1018.4, 941.08, 1508.52, 1327.83]</t>
         </is>
       </c>
     </row>
@@ -3150,7 +2915,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[12.10888185982731, 37.19044149181927, 34.00265652348031, 33.112492584958815, 35.726277648998334]</t>
+          <t>[12.10888185982731, 37.19044149181927, 34.24287982992647, 33.112492584958815, 35.726277648998334]</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3160,12 +2925,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>[43.11, 20.24, 32.75, 32.58, 34.31]</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>[888.14, 1127.2, 1891.76, 1436.7, 1793.31]</t>
+          <t>[593.03, 670.37, 1201.6, 900.7, 1136.68]</t>
         </is>
       </c>
     </row>
@@ -3207,7 +2967,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[43.72476599561995, 40.53441510987648, 37.22203177051449, 12.391326965446531]</t>
+          <t>[47.17073198588231, 40.53441510987648, 39.334064872235885, 12.391326965446531]</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3217,12 +2977,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>[41.18, 28.44, 36.61, 3.42]</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>[2570.76, 1539.39, 1943.35, 690.64]</t>
+          <t>[1629.64, 998.66, 1239.24, 362.51]</t>
         </is>
       </c>
     </row>
@@ -3274,12 +3029,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>[50.97, 51.13, 25.77, 32.81]</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>[2849.76, 2932.03, 1276.97, 1632.79]</t>
+          <t>[1836.59, 2041.38, 820.58, 975.17]</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3071,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[53.716632429886346, 40.74259455526668, 45.18759485542458, 19.1608133156859, 38.242382153520964]</t>
+          <t>[53.716632429886346, 40.74259455526668, 45.18759485542458, 19.1608133156859, 39.79510427778134]</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3331,12 +3081,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>[55.65, 32.29, 13.43, 28.55, 36.99]</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>[3430.23, 1608.87, 905.14, 900.31, 2375.53]</t>
+          <t>[2195.84, 1021.55, 727.81, 569.85, 1501.81]</t>
         </is>
       </c>
     </row>
@@ -3388,12 +3133,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>[48.17, 51.6, 35.31, 36.19]</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>[2048.13, 2520.59, 2061.77, 1712.25]</t>
+          <t>[1397.02, 1614.13, 1275.91, 1115.91]</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3185,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>[28.52, 24.67, 23.45]</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>[766.35, 1323.91, 1380.26]</t>
+          <t>[474.98, 837.94, 797.6]</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3227,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[47.076770482422006, 35.357783192715615, 14.945050993178977, 42.56558495454067, 35.45563075130142]</t>
+          <t>[47.076770482422006, 35.357783192715615, 16.7773476889567, 42.56558495454067, 35.45563075130142]</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3502,12 +3237,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>[35.21, 36.81, 14.4, 33.77, 21.11]</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>[1882.67, 2010.98, 678.92, 2009.75, 1287.6]</t>
+          <t>[1166.78, 1310.73, 464.2, 1214.22, 864.07]</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3279,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[49.80975109423247, 40.59298331099328, 20.368975890688922, 61.289457997614115]</t>
+          <t>[55.35311926528348, 40.59298331099328, 20.368975890688922, 61.289457997614115]</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3559,12 +3289,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>[45.96, 27.06, 21.51, 6.35]</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>[3150.86, 1328.25, 811.66, 1892.33]</t>
+          <t>[2200.23, 792.59, 551.45, 1077.76]</t>
         </is>
       </c>
     </row>
@@ -3616,12 +3341,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>[26.48, 17.47, 30.99, 27.69, 17.31]</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>[1371.13, 884.79, 1247.49, 1375.47, 1210.83]</t>
+          <t>[887.21, 555.08, 765.86, 876.82, 714.32]</t>
         </is>
       </c>
     </row>
@@ -3673,12 +3393,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>[41.29, 27.12, 25.08, 32.45, 17.22]</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>[1892.19, 1276.11, 1147.04, 1213.28, 885.23]</t>
+          <t>[1263.65, 818.07, 796.31, 727.23, 493.33]</t>
         </is>
       </c>
     </row>
@@ -3730,12 +3445,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>[3.21, 10.17]</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>[551.19, 561.28]</t>
+          <t>[318.79, 425.01]</t>
         </is>
       </c>
     </row>
@@ -3787,12 +3497,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>[41.68, 16.96, 20.55, 36.18]</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>[1624.13, 891.11, 689.47, 1449.45]</t>
+          <t>[1103.53, 635.18, 581.23, 914.06]</t>
         </is>
       </c>
     </row>
@@ -3844,12 +3549,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>[22.87, 26.72, 24.11, 12.92]</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>[1016.75, 918.72, 1363.06, 958.16]</t>
+          <t>[668.89, 586.94, 806.57, 515.3]</t>
         </is>
       </c>
     </row>
@@ -3901,12 +3601,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>[26.61, 13.94, 25.49, 22.14, 24.05]</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>[1238.15, 959.5, 895.74, 1225.57, 1015.8]</t>
+          <t>[786.96, 629.87, 555.41, 803.99, 670.07]</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3643,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[32.23136875551454, 29.72533240214466, 23.67442826060673, 27.557664604488952]</t>
+          <t>[32.23136875551454, 29.72533240214466, 28.930820897410378, 27.557664604488952]</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3958,12 +3653,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>[35.64, 16.17, 30.91, 22.38]</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>[1300.48, 1061.08, 1103.19, 962.1]</t>
+          <t>[788.59, 684.71, 738.72, 626.26]</t>
         </is>
       </c>
     </row>
@@ -4005,7 +3695,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[24.63780130349243, 26.075394599846117, 35.69172441054776, 28.84652416870819, 26.212061419178106]</t>
+          <t>[24.63780130349243, 27.064526137677795, 35.69172441054776, 31.034857412847273, 26.212061419178106]</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4015,12 +3705,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>[23.9, 26.31, 21.04, 23.1, 16.34]</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>[840.6, 1065.04, 1306.35, 1024.48, 858.72]</t>
+          <t>[549.14, 674.23, 860.67, 682.76, 548.29]</t>
         </is>
       </c>
     </row>
@@ -4072,12 +3757,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>[31.29, 28.59, 24.0, 23.92, 23.53]</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>[1095.61, 1024.29, 1084.5, 1070.18, 1020.27]</t>
+          <t>[686.27, 666.49, 669.28, 709.85, 642.23]</t>
         </is>
       </c>
     </row>
@@ -4129,12 +3809,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>[29.12, 18.33, 35.88, 20.16, 9.19]</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>[1197.2, 1002.35, 1186.47, 998.35, 833.91]</t>
+          <t>[808.63, 644.29, 753.48, 653.98, 484.63]</t>
         </is>
       </c>
     </row>
@@ -4186,12 +3861,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>[32.28, 8.12, 21.54, 23.71, 30.53]</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>[1113.05, 828.71, 1067.59, 1013.21, 1369.09]</t>
+          <t>[720.77, 412.98, 649.57, 656.01, 885.14]</t>
         </is>
       </c>
     </row>
@@ -4243,12 +3913,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>[24.28, 23.46, 21.2, 32.45]</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>[961.38, 758.71, 936.86, 1184.49]</t>
+          <t>[646.78, 494.18, 640.49, 746.74]</t>
         </is>
       </c>
     </row>
@@ -4300,12 +3965,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>[29.26, 27.78, 11.63, 23.24, 15.32]</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>[1181.94, 865.16, 694.1, 1054.62, 784.7]</t>
+          <t>[781.51, 548.49, 415.47, 664.96, 476.59]</t>
         </is>
       </c>
     </row>
@@ -4357,12 +4017,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>[29.7, 41.78, 12.28, 15.97, 13.48]</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>[1166.79, 1346.2, 862.16, 823.1, 907.56]</t>
+          <t>[774.66, 879.1, 535.48, 518.28, 518.52]</t>
         </is>
       </c>
     </row>
@@ -4404,7 +4059,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>[31.393791483493178, 19.82217508828547, 32.49140668007263, 17.853173974955467, 22.101456637600545]</t>
+          <t>[31.393791483493178, 19.82217508828547, 32.49140668007263, 20.298828726398828, 22.101456637600545]</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4414,12 +4069,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>[39.56, 32.42, 26.81, 26.13, 11.22]</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>[1544.86, 1133.19, 1029.63, 744.62, 747.45]</t>
+          <t>[988.9, 790.78, 621.45, 510.24, 452.6]</t>
         </is>
       </c>
     </row>
@@ -4471,12 +4121,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>[26.05, 16.33, 22.96, 16.92]</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>[914.63, 857.84, 1043.49, 626.98]</t>
+          <t>[575.15, 516.96, 581.82, 405.08]</t>
         </is>
       </c>
     </row>
@@ -4528,12 +4173,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>[48.07, 18.6, 19.83, 27.47]</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>[1452.88, 851.92, 1052.49, 956.75]</t>
+          <t>[827.56, 487.95, 713.34, 630.43]</t>
         </is>
       </c>
     </row>
@@ -4585,12 +4225,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>[20.2, 25.37, 26.3, 17.53]</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>[971.96, 775.5, 937.08, 941.89]</t>
+          <t>[637.98, 517.66, 639.77, 622.49]</t>
         </is>
       </c>
     </row>
@@ -4642,12 +4277,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>[17.57, 27.0, 29.16, 29.58, 27.47]</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>[957.09, 1050.31, 1388.3, 1021.22, 1084.77]</t>
+          <t>[594.68, 644.18, 784.23, 726.28, 751.32]</t>
         </is>
       </c>
     </row>
@@ -4699,12 +4329,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>[37.35, 17.54, 31.45, 24.65, 26.53]</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>[1364.07, 1020.6, 1090.65, 994.06, 1102.38]</t>
+          <t>[910.99, 675.48, 675.55, 662.68, 645.04]</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4381,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>[32.51, 8.93, 14.23, 22.15, 12.88]</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>[572.74, 555.65, 675.26, 750.06, 679.14]</t>
+          <t>[350.79, 346.88, 393.01, 475.89, 433.56]</t>
         </is>
       </c>
     </row>
@@ -4813,12 +4433,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>[33.75, 27.11, 22.01, 36.31]</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>[1118.0, 1143.02, 917.4, 2131.42]</t>
+          <t>[683.86, 762.06, 567.19, 1410.42]</t>
         </is>
       </c>
     </row>
@@ -4870,12 +4485,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>[28.93, 20.88, 13.82, 41.28, 25.48]</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>[871.05, 845.39, 1011.32, 1508.36, 957.61]</t>
+          <t>[597.64, 562.1, 596.08, 832.23, 667.46]</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4527,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[19.9185368727699, 28.700616755119412, 20.37462271814357, 23.180809752601014]</t>
+          <t>[19.9185368727699, 31.983964695391077, 20.37462271814357, 23.180809752601014]</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4927,12 +4537,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>[21.28, 39.92, 32.5, 26.43]</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>[772.7, 1842.52, 950.92, 934.75]</t>
+          <t>[505.69, 1124.25, 593.94, 635.68]</t>
         </is>
       </c>
     </row>
@@ -4984,12 +4589,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>[17.19, 26.49, 32.59, 38.73]</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>[1005.22, 1051.95, 1327.74, 1328.61]</t>
+          <t>[616.34, 641.01, 803.81, 876.97]</t>
         </is>
       </c>
     </row>
@@ -5041,12 +4641,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>[31.81, 25.77, 41.03, 35.49, 28.4]</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>[940.24, 1077.78, 1365.69, 1237.64, 1365.9]</t>
+          <t>[570.05, 701.74, 911.58, 716.97, 830.78]</t>
         </is>
       </c>
     </row>
@@ -5098,12 +4693,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>[25.02, 15.62, 40.37, 27.35]</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>[982.41, 869.65, 1711.01, 1150.11]</t>
+          <t>[675.12, 498.48, 1071.87, 716.09]</t>
         </is>
       </c>
     </row>
@@ -5155,12 +4745,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>[21.16, 17.77]</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>[843.11, 834.09]</t>
+          <t>[508.49, 575.9]</t>
         </is>
       </c>
     </row>
@@ -5212,12 +4797,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>[24.15, 22.17, 26.2, 21.56]</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>[938.31, 857.92, 679.95, 1198.07]</t>
+          <t>[611.57, 562.38, 442.24, 764.64]</t>
         </is>
       </c>
     </row>
@@ -5259,7 +4839,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>[25.692978147514573, 24.907685820951816, 27.031723141049117, 22.74701525857098, 10.621523610133366]</t>
+          <t>[25.692978147514573, 24.907685820951816, 27.031723141049117, 22.74701525857098, 11.471471991465984]</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5269,12 +4849,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>[14.54, 27.56, 19.97, 31.46, 54.27]</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>[862.17, 842.82, 910.17, 896.72, 838.92]</t>
+          <t>[513.24, 553.69, 550.11, 519.88, 540.35]</t>
         </is>
       </c>
     </row>
@@ -5326,12 +4901,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>[15.78, 14.82, 29.77, 19.2, 17.05]</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>[937.85, 818.82, 881.48, 736.11, 885.05]</t>
+          <t>[621.92, 567.04, 532.67, 482.36, 565.32]</t>
         </is>
       </c>
     </row>
@@ -5383,12 +4953,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>[41.83, 31.04, 19.4, 26.55, 18.79]</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>[1583.9, 730.73, 1088.77, 1279.17, 969.43]</t>
+          <t>[957.24, 498.38, 703.19, 758.0, 619.21]</t>
         </is>
       </c>
     </row>
@@ -5430,7 +4995,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>[19.877369478846468, 19.835697891221155, 17.49498787560224, 28.038714130520354, 31.479759873533656]</t>
+          <t>[21.137025867293048, 19.835697891221155, 17.49498787560224, 28.038714130520354, 31.479759873533656]</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5440,12 +5005,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>[37.57, 23.06, 24.16, 21.25, 19.66]</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>[1090.34, 707.94, 730.07, 962.9, 1063.71]</t>
+          <t>[695.9, 453.56, 475.83, 606.3, 648.6]</t>
         </is>
       </c>
     </row>
@@ -5487,7 +5047,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[34.99656570040681, 26.379475414771882, 31.961089612230428, 23.900203239255863, 20.099318946519737]</t>
+          <t>[34.99656570040681, 26.379475414771882, 31.961089612230428, 23.900203239255863, 20.578582475229]</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5497,12 +5057,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>[15.08, 32.16, 26.38, 28.16, 42.29]</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>[869.62, 922.44, 1035.52, 1004.18, 1431.62]</t>
+          <t>[640.67, 538.57, 642.21, 653.1, 908.96]</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5109,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>[26.54, 19.7, 22.95, 14.68, 15.7]</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>[1017.77, 907.81, 962.59, 840.32, 1051.66]</t>
+          <t>[634.4, 540.0, 668.59, 522.47, 671.96]</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5151,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>[30.225517364047413, 19.813180567839648, 27.577985081945446, 32.283568258768476, 14.159785993845418]</t>
+          <t>[30.225517364047413, 23.138397095743404, 27.577985081945446, 32.283568258768476, 17.09153262093594]</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5611,12 +5161,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>[41.58, 28.82, 20.49, 28.38, 21.38]</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>[1332.24, 933.24, 896.14, 1320.92, 804.15]</t>
+          <t>[799.1, 589.45, 560.61, 807.62, 557.87]</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5203,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>[60.110405436795396, 25.667769647892197, 83.05649496134936]</t>
+          <t>[60.82418214033048, 25.667769647892197, 83.05649496134936]</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5668,12 +5213,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>[43.79, 14.64, 37.45]</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>[2661.69, 1244.46, 3566.88]</t>
+          <t>[1611.33, 789.17, 2457.93]</t>
         </is>
       </c>
     </row>
@@ -5725,12 +5265,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>[53.02, 31.34, 42.7, 45.21, 46.5]</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>[4564.14, 1960.02, 3853.2, 3814.62, 4820.59]</t>
+          <t>[2849.81, 1292.68, 2449.44, 2481.51, 2892.49]</t>
         </is>
       </c>
     </row>
@@ -5772,7 +5307,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>[87.77053129855719, 49.01449516514487, 64.07291913471464]</t>
+          <t>[87.77053129855719, 53.4081615896647, 64.07291913471464]</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5782,12 +5317,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>[23.14, 42.81, 35.7]</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>[1958.76, 3371.37, 3055.1]</t>
+          <t>[1886.66, 2061.41, 2027.18]</t>
         </is>
       </c>
     </row>
@@ -5839,12 +5369,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>[23.2, 11.73, 54.85, 68.84]</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>[1830.33, 2190.41, 4965.02, 6338.14]</t>
+          <t>[1124.19, 1424.88, 3119.48, 3632.58]</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5411,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>[95.37481608003014, 94.89167662531054, 35.9261065016526, 71.98252269852833]</t>
+          <t>[95.37481608003014, 94.89167662531054, 38.37063833639853, 71.98252269852833]</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5896,12 +5421,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>[50.18, 52.02, 28.2, 52.3]</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>[4494.74, 4861.08, 1957.3, 3526.0]</t>
+          <t>[2805.51, 3163.85, 1329.44, 2216.82]</t>
         </is>
       </c>
     </row>
@@ -5953,12 +5473,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>[36.52, 12.89, 11.27, 23.4, 38.66]</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>[3465.64, 935.96, 1345.23, 1919.46, 3580.89]</t>
+          <t>[2173.86, 574.87, 700.06, 1235.74, 2155.49]</t>
         </is>
       </c>
     </row>
@@ -6010,12 +5525,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>[41.53, 11.94, 37.19]</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>[4262.81, 1253.94, 2970.54]</t>
+          <t>[2760.71, 774.8, 1924.58]</t>
         </is>
       </c>
     </row>
@@ -6067,12 +5577,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>[40.8, 43.01, 27.16, 64.19, 26.6]</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>[4111.16, 2192.9, 1273.56, 5009.66, 2200.77]</t>
+          <t>[2501.48, 1455.08, 796.32, 3216.98, 1483.79]</t>
         </is>
       </c>
     </row>
@@ -6114,7 +5619,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>[18.543686595831755, 43.66368431577592, 19.51857230454342, 58.96921761962875, 42.227283460897624]</t>
+          <t>[18.543686595831755, 43.66368431577592, 19.555463784267616, 58.96921761962875, 42.227283460897624]</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6124,12 +5629,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>[14.81, 25.42, 22.81, 40.54, 11.26]</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>[1200.16, 2458.22, 1251.91, 2953.54, 1184.57]</t>
+          <t>[758.32, 1556.15, 833.61, 1800.5, 719.49]</t>
         </is>
       </c>
     </row>
@@ -6171,7 +5671,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>[41.18336030127574, 16.833270663436114, 44.062583939284856, 64.12253246089706, 50.353793743218354]</t>
+          <t>[41.18336030127574, 16.833270663436114, 44.062583939284856, 74.44643335900724, 50.65181016655931]</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6181,12 +5681,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>[7.04, 420.78, 24.32, 31.85, 39.33]</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>[1362.39, 3306.51, 1742.27, 3958.8, 2880.79]</t>
+          <t>[844.85, 1736.84, 1153.75, 2463.52, 1878.32]</t>
         </is>
       </c>
     </row>
@@ -6238,12 +5733,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>[38.83, 39.12, 35.9, 16.44]</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>[1706.49, 3544.27, 2913.96, 974.49]</t>
+          <t>[1059.11, 2275.16, 1813.23, 578.76]</t>
         </is>
       </c>
     </row>
@@ -6285,7 +5775,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>[23.215735426558435, 27.776979732352302]</t>
+          <t>[23.215735426558435, 28.56700145470895]</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6295,12 +5785,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>[20.21, 35.34]</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>[1350.84, 2188.03]</t>
+          <t>[845.41, 1446.13]</t>
         </is>
       </c>
     </row>
@@ -6342,7 +5827,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>[51.46268876749343, 45.20988463229099, 19.107313647695413, 38.84330792198249, 21.316187663573235]</t>
+          <t>[54.53279241896345, 49.990854170361125, 24.087369580643205, 38.84330792198249, 21.316187663573235]</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6352,12 +5837,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>[30.04, 29.5, 22.0, 15.76, 32.22]</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>[2359.18, 2037.57, 1828.63, 1177.25, 979.85]</t>
+          <t>[1526.34, 1421.96, 1195.53, 856.27, 632.33]</t>
         </is>
       </c>
     </row>
@@ -6399,7 +5879,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>[66.40468510584303, 105.95392788539786, 18.89280823014957, 48.829351735737475, 30.770096190232607]</t>
+          <t>[66.40468510584303, 105.95392788539786, 18.89280823014957, 49.697803969754496, 30.770096190232607]</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6409,12 +5889,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>[32.24, 24.03, 28.43, 46.11, 18.29]</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>[2893.25, 3126.67, 990.25, 3004.32, 1123.21]</t>
+          <t>[1651.69, 2038.72, 660.35, 1878.59, 789.57]</t>
         </is>
       </c>
     </row>
@@ -6456,7 +5931,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>[36.29239503545866, 65.13262370142128, 59.81611357999033, 31.41767355163059]</t>
+          <t>[38.152499202176955, 65.13262370142128, 59.81611357999033, 31.656957283721173]</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6466,12 +5941,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>[22.43, 47.54, 38.46, 17.94]</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>[1862.82, 3793.27, 3119.8, 1649.22]</t>
+          <t>[1194.8, 2354.9, 1987.38, 1148.42]</t>
         </is>
       </c>
     </row>
@@ -6523,12 +5993,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>[47.57, 22.83]</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>[3711.66, 2037.97]</t>
+          <t>[2350.96, 1317.37]</t>
         </is>
       </c>
     </row>
@@ -6580,12 +6045,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>[38.29, 11.91, 40.44, 44.95]</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>[3153.14, 1061.49, 927.29, 2992.1]</t>
+          <t>[2045.17, 694.2, 587.56, 1825.3]</t>
         </is>
       </c>
     </row>
@@ -6627,7 +6087,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>[77.65188268491193, 25.98563213645289, 35.18900276253992, 54.80472640236846, 35.18122938557788]</t>
+          <t>[77.65188268491193, 25.98563213645289, 35.18900276253992, 54.80472640236846, 40.00008405226182]</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6637,12 +6097,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>[39.06, 4.44, 16.87, 25.53, 27.43]</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>[3955.68, 903.69, 1766.91, 2361.88, 1564.19]</t>
+          <t>[2415.0, 507.16, 1282.92, 1609.81, 1121.33]</t>
         </is>
       </c>
     </row>
@@ -6684,7 +6139,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>[66.08783773399121, 31.58737947069843, 39.544197764736, 28.576996662999267]</t>
+          <t>[66.08783773399121, 31.639282290600583, 39.544197764736, 28.576996662999267]</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6694,12 +6149,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>[63.76, 25.63, 22.53, 11.47]</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>[3612.15, 1392.28, 1309.96, 1199.78]</t>
+          <t>[2325.46, 1013.42, 856.45, 677.04]</t>
         </is>
       </c>
     </row>
@@ -6751,12 +6201,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>[25.25, 31.16, 36.64, 17.89, 6.75]</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>[1121.16, 2011.93, 2249.14, 1505.03, 849.99]</t>
+          <t>[677.39, 1285.57, 1460.42, 906.91, 543.43]</t>
         </is>
       </c>
     </row>
@@ -6808,12 +6253,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>[7.14, 13.75, 7.81, 12.3, 23.05]</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>[657.25, 801.64, 726.35, 493.35, 1289.23]</t>
+          <t>[445.78, 526.59, 494.98, 295.84, 748.62]</t>
         </is>
       </c>
     </row>
@@ -6865,12 +6305,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>[22.34, 37.04, 33.6, 25.19]</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>[1310.5, 2320.37, 1562.71, 1718.18]</t>
+          <t>[905.7, 1486.73, 975.75, 1065.65]</t>
         </is>
       </c>
     </row>
@@ -6922,12 +6357,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>[18.96, 43.57, 38.56, 27.46, 37.56]</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>[1029.36, 1569.01, 2064.45, 1606.36, 1899.7]</t>
+          <t>[660.31, 1048.3, 1329.94, 1001.77, 1199.05]</t>
         </is>
       </c>
     </row>
@@ -6979,12 +6409,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>[27.13, 19.19, 29.24, 21.68, 11.99]</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>[1754.07, 1065.86, 1648.36, 1432.14, 1070.19]</t>
+          <t>[1178.13, 748.88, 1023.2, 967.14, 688.58]</t>
         </is>
       </c>
     </row>
@@ -7026,7 +6451,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>[40.54913382958789, 26.463303009637507, 30.03792077674832, 33.152079174791105, 36.62014589754219]</t>
+          <t>[40.54913382958789, 30.324878718904163, 30.03792077674832, 33.152079174791105, 39.825100848482975]</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -7036,12 +6461,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>[32.27, 20.42, 16.07, 21.3, 34.91]</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>[1849.96, 1281.58, 1119.64, 1162.79, 2226.75]</t>
+          <t>[1172.36, 882.26, 741.5, 799.22, 1471.23]</t>
         </is>
       </c>
     </row>
@@ -7093,12 +6513,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>[15.27, 17.47, 13.75, 17.83, 29.36]</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>[1196.81, 1226.41, 1390.75, 1188.1, 1617.91]</t>
+          <t>[734.74, 800.76, 842.62, 782.07, 1002.37]</t>
         </is>
       </c>
     </row>
@@ -7140,7 +6555,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>[29.42599370498258, 24.253429874449, 23.165659366584446, 35.28590176036939, 24.314442628007708]</t>
+          <t>[29.42599370498258, 24.253429874449, 28.231963383296744, 35.28590176036939, 24.314442628007708]</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -7150,12 +6565,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>[21.22, 25.89, 18.49, 19.56, 23.47]</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>[1223.65, 1236.79, 968.6, 1433.2, 1100.29]</t>
+          <t>[887.56, 811.36, 651.38, 868.14, 783.71]</t>
         </is>
       </c>
     </row>
@@ -7197,7 +6607,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>[23.351735169552818, 29.104806928115067, 27.033505827817876, 31.574898649053015, 33.34617838236379]</t>
+          <t>[23.56063356208429, 29.104806928115067, 27.033505827817876, 31.574898649053015, 33.34617838236379]</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -7207,12 +6617,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>[13.53, 30.47, 29.43, 25.2, 51.14]</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>[1079.78, 1377.79, 1391.22, 1260.89, 2592.19]</t>
+          <t>[712.15, 938.17, 954.82, 815.08, 1686.77]</t>
         </is>
       </c>
     </row>
@@ -7254,7 +6659,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>[27.18972495953502, 19.62248640020486, 27.0106623376445, 23.151240330273552, 32.95354450752225]</t>
+          <t>[27.18972495953502, 19.62248640020486, 30.94296859892838, 23.151240330273552, 32.95354450752225]</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7264,12 +6669,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>[18.01, 22.47, 21.71, 14.06, 31.96]</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>[879.53, 1118.57, 1399.21, 958.2, 1162.95]</t>
+          <t>[595.53, 718.52, 885.64, 637.95, 742.35]</t>
         </is>
       </c>
     </row>
@@ -7321,12 +6721,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>[19.26, 18.0, 16.7, 16.39]</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>[885.8, 1218.12, 1228.82, 1195.91]</t>
+          <t>[565.87, 837.42, 852.83, 782.98]</t>
         </is>
       </c>
     </row>
@@ -7378,12 +6773,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>[20.18, 21.02, 6.1, 2.89, 23.71]</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>[1293.36, 1170.92, 1040.32, 969.5, 1503.36]</t>
+          <t>[808.75, 742.35, 691.44, 577.12, 939.74]</t>
         </is>
       </c>
     </row>
@@ -7435,12 +6825,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>[11.71, 18.98, 20.14, 18.56, 36.05]</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>[920.29, 491.58, 1068.08, 1063.13, 1951.91]</t>
+          <t>[558.17, 294.11, 752.72, 704.19, 1343.85]</t>
         </is>
       </c>
     </row>
@@ -7492,12 +6877,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>[44.72, 23.97, 15.96, 3.97]</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>[1456.44, 1273.77, 1308.55, 889.05]</t>
+          <t>[949.01, 859.62, 814.74, 637.13]</t>
         </is>
       </c>
     </row>
@@ -7549,12 +6929,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>[23.4, 20.63, 26.31]</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>[1305.56, 1013.76, 1336.45]</t>
+          <t>[891.32, 691.65, 883.57]</t>
         </is>
       </c>
     </row>
@@ -7596,7 +6971,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>[17.916153519311457, 23.944443220003578, 32.52864682525739]</t>
+          <t>[21.060556638798502, 23.944443220003578, 32.52864682525739]</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7606,12 +6981,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>[12.92, 18.75, 23.6]</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>[977.57, 1078.71, 1292.35]</t>
+          <t>[733.95, 715.16, 855.55]</t>
         </is>
       </c>
     </row>
@@ -7663,12 +7033,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>[25.63, 19.03, 35.37, 21.83, 21.01]</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>[924.0, 1461.29, 1890.21, 1277.13, 1152.98]</t>
+          <t>[576.02, 933.29, 1315.87, 826.3, 754.41]</t>
         </is>
       </c>
     </row>
@@ -7710,7 +7075,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>[75.99373125427044, 80.33373257947517, 80.27475339655322, 88.42913236028048, 92.1290615667283]</t>
+          <t>[75.99373125427044, 80.33373257947517, 80.27475339655322, 115.13509343382337, 98.63758955116539]</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7720,12 +7085,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>[51.97, 48.92, 43.66, 27.12, 42.23]</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>[5990.67, 5978.77, 5191.62, 4329.52, 5682.66]</t>
+          <t>[3989.33, 3876.59, 3552.31, 3065.37, 3416.42]</t>
         </is>
       </c>
     </row>
@@ -7767,7 +7127,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>[82.05311960593075, 96.67026674486975, 92.06904071941736, 98.02117440313731]</t>
+          <t>[82.65455977467637, 96.67026674486975, 92.06904071941736, 98.02117440313731]</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7777,12 +7137,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>[40.92, 33.39, 44.32, 24.32]</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>[4611.38, 4154.87, 5197.57, 3195.08]</t>
+          <t>[2861.99, 2517.23, 3387.09, 2032.7]</t>
         </is>
       </c>
     </row>
@@ -7834,12 +7189,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>[23.32, 21.96, 14.65, 26.91]</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>[2356.95, 2431.72, 2773.07, 2495.31]</t>
+          <t>[1617.45, 1565.58, 1448.03, 1516.68]</t>
         </is>
       </c>
     </row>
@@ -7881,7 +7231,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>[75.2936963035829, 90.26971197661707, 93.76576107116456, 84.8325953481901, 86.7685766716059]</t>
+          <t>[90.3232009521228, 96.40295213274497, 93.76576107116456, 84.8325953481901, 86.7685766716059]</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7891,12 +7241,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>[44.36, 54.27, 32.85, 46.21, 37.84]</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>[4986.41, 6048.53, 3515.84, 6303.84, 4925.22]</t>
+          <t>[3064.67, 3865.99, 2071.27, 3977.21, 3087.47]</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7283,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>[170.95314336153376, 90.38827610095333, 86.44604436957155, 73.88484358502475]</t>
+          <t>[170.95314336153376, 98.04346424614127, 86.44604436957155, 82.00022663118752]</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7948,12 +7293,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>[21.23, 42.46, 21.99, 37.41]</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>[4441.84, 5408.1, 3530.29, 4331.49]</t>
+          <t>[3323.35, 3318.63, 1902.08, 2709.98]</t>
         </is>
       </c>
     </row>
@@ -8005,12 +7345,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>[49.44, 47.23, 58.68, 41.14]</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>[5873.13, 5797.99, 6147.86, 4732.8]</t>
+          <t>[3663.91, 3612.52, 3760.72, 3098.95]</t>
         </is>
       </c>
     </row>
@@ -8062,12 +7397,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>[34.7, 33.28]</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>[4626.72, 4300.0]</t>
+          <t>[2830.61, 2664.86]</t>
         </is>
       </c>
     </row>
@@ -8109,7 +7439,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>[80.30627809693698, 83.00127892541325, 94.95075297781537, 96.69204414062213, 90.58951326114098]</t>
+          <t>[80.30627809693698, 83.00127892541325, 96.9581555953483, 96.69204414062213, 90.58951326114098]</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -8119,12 +7449,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>[49.29, 40.87, 49.39, 38.3, 39.07]</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>[5706.27, 4111.31, 5623.93, 4998.7, 5184.99]</t>
+          <t>[3806.49, 2513.03, 3434.46, 3074.64, 3342.8]</t>
         </is>
       </c>
     </row>
@@ -8166,7 +7491,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>[87.00335231758307, 89.56941817999741, 87.44746970520434, 84.33933410805446, 79.73667259363992]</t>
+          <t>[91.31731877952282, 89.56941817999741, 91.56881547127625, 84.33933410805446, 79.80218553663225]</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -8176,12 +7501,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>[48.16, 46.6, 37.52, 24.18, 37.72]</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>[5435.33, 5239.67, 5304.53, 2908.79, 4552.57]</t>
+          <t>[3608.81, 3399.19, 3307.05, 2013.54, 2921.93]</t>
         </is>
       </c>
     </row>
@@ -8223,7 +7543,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>[89.46067394533465, 67.84752083865824, 84.25501888262183, 86.84306407945436, 94.22852535235188]</t>
+          <t>[89.46067394533465, 68.49137358532339, 84.25501888262183, 101.21401032065076, 94.22852535235188]</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -8233,12 +7553,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>[54.12, 40.45, 27.06, 37.52, 22.36]</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>[5893.23, 4413.23, 3284.67, 4924.29, 3408.81]</t>
+          <t>[3893.23, 2814.89, 2163.05, 3192.74, 2053.52]</t>
         </is>
       </c>
     </row>
@@ -8290,12 +7605,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>[28.0, 34.91, 24.32, 41.68]</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>[3511.21, 4010.08, 3227.88, 3930.1]</t>
+          <t>[2182.51, 2356.57, 2041.71, 2496.02]</t>
         </is>
       </c>
     </row>
@@ -8337,7 +7647,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>[87.82691075577605, 70.1544047620151, 72.60001560583665, 99.25216418083458, 95.64670324570803]</t>
+          <t>[87.82691075577605, 70.1544047620151, 87.7211876042632, 99.25216418083458, 95.64670324570803]</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8347,12 +7657,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>[51.1, 25.31, 39.6, 40.01, 21.05]</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>[5526.38, 2933.52, 4575.98, 4736.04, 3199.46]</t>
+          <t>[3561.9, 1888.71, 2800.31, 3006.76, 2161.61]</t>
         </is>
       </c>
     </row>
@@ -8394,7 +7699,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>[80.8846915770691, 76.17268890704152, 75.66215689540563, 79.82966085149963]</t>
+          <t>[90.06467516566438, 76.17268890704152, 75.66215689540563, 81.36253750945065]</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8404,12 +7709,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>[34.9, 39.58, 40.3, 38.18]</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>[4754.57, 4538.67, 4524.41, 5024.88]</t>
+          <t>[2981.53, 2781.57, 3001.06, 3038.91]</t>
         </is>
       </c>
     </row>
@@ -8451,7 +7751,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>[75.30989858209145, 86.67816590770143, 96.20507588357682, 84.54359254806369, 79.26951729219105]</t>
+          <t>[89.8167636266355, 86.67816590770143, 96.20507588357682, 84.54359254806369, 79.26951729219105]</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -8461,12 +7761,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>[51.89, 28.32, 36.81, 40.57, 37.78]</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>[5536.68, 3793.53, 3611.94, 3596.68, 4343.45]</t>
+          <t>[3595.86, 2371.82, 2185.55, 2161.92, 2671.0]</t>
         </is>
       </c>
     </row>
@@ -8508,7 +7803,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>[96.49390912765926, 73.47425008131282, 77.06866022560067, 64.9201471662916]</t>
+          <t>[96.49390912765926, 73.90817826116343, 82.70075981684661, 69.62792814158493]</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8518,12 +7813,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>[42.39, 39.72, 39.6, 33.34]</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>[5479.91, 4451.48, 4907.2, 3822.59]</t>
+          <t>[3638.59, 2923.86, 3024.25, 2620.71]</t>
         </is>
       </c>
     </row>
@@ -8565,7 +7855,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>[77.41634737216903, 89.29214079155864, 83.28730492453577, 97.24244956471105, 71.37617362393055]</t>
+          <t>[79.30519547624338, 89.29214079155864, 83.28730492453577, 97.24244956471105, 74.21879751349503]</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8575,12 +7865,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>[48.01, 55.47, 31.01, 31.68, 36.24]</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>[5713.71, 6104.31, 3399.45, 3482.4, 4325.98]</t>
+          <t>[3700.78, 3870.42, 2267.43, 2060.01, 2676.84]</t>
         </is>
       </c>
     </row>
@@ -8622,7 +7907,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>[77.03034869995886, 78.14336831127359, 82.41263573403677, 89.33677761979732]</t>
+          <t>[91.06212593963492, 78.14336831127359, 86.45272836931679, 93.5477537619956]</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -8632,12 +7917,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>[41.22, 22.99, 37.17, 41.35]</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>[4981.65, 2704.6, 4745.54, 5157.25]</t>
+          <t>[3078.21, 1942.02, 2991.39, 3327.46]</t>
         </is>
       </c>
     </row>
@@ -8679,7 +7959,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>[77.98844195542213, 103.75821948515994, 97.79695635238922, 87.72893425432693, 73.8383176476518]</t>
+          <t>[81.13264768639021, 103.75821948515994, 97.79695635238922, 87.72893425432693, 82.06407620091146]</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -8689,12 +7969,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>[58.78, 27.16, 25.33, 38.41, 37.74]</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>[6295.98, 3736.6, 3270.61, 5007.4, 4621.62]</t>
+          <t>[3921.29, 2207.76, 1952.86, 3146.04, 2846.55]</t>
         </is>
       </c>
     </row>
@@ -8746,12 +8021,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>[49.55, 31.15, 32.43, 27.35, 29.18]</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>[3851.49, 3016.02, 2245.7, 1747.31, 1891.65]</t>
+          <t>[2590.02, 2033.59, 1429.73, 1156.7, 1183.43]</t>
         </is>
       </c>
     </row>
@@ -8803,12 +8073,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>[40.29, 38.73, 40.06, 34.57, 36.83]</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>[3160.41, 3628.5, 3592.5, 2126.38, 2955.74]</t>
+          <t>[1992.29, 2508.39, 2139.07, 1474.95, 1921.3]</t>
         </is>
       </c>
     </row>
@@ -8850,7 +8115,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>[50.45365112694865, 22.009113255415887, 36.74467632953744]</t>
+          <t>[50.45365112694865, 22.072348946247864, 36.74467632953744]</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -8860,12 +8125,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>[31.21, 32.42, 33.82]</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>[2235.41, 1389.24, 1877.72]</t>
+          <t>[1562.45, 889.58, 1108.75]</t>
         </is>
       </c>
     </row>
@@ -8907,7 +8167,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>[69.73096996930529, 55.60299909387851, 37.025864132422825, 53.035970225385796, 48.48059103277187]</t>
+          <t>[69.73096996930529, 55.60299909387851, 39.517629909979036, 53.035970225385796, 48.48059103277187]</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -8917,12 +8177,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>[48.16, 29.92, 27.07, 40.04, 32.2]</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>[3485.23, 2020.71, 1968.2, 2571.88, 2202.67]</t>
+          <t>[2409.29, 1404.72, 1293.14, 1671.03, 1532.56]</t>
         </is>
       </c>
     </row>
@@ -8974,12 +8229,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>[33.63, 35.45, 28.36, 31.49]</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>[3631.06, 2114.65, 1926.92, 2045.83]</t>
+          <t>[2351.94, 1369.27, 1342.63, 1324.94]</t>
         </is>
       </c>
     </row>
@@ -9031,12 +8281,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>[26.64, 36.15, 33.21]</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>[1672.67, 2700.33, 2122.08]</t>
+          <t>[1186.65, 1806.98, 1476.78]</t>
         </is>
       </c>
     </row>
@@ -9088,12 +8333,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>[78.07, 42.24, 39.31, 30.93, 28.57]</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>[4796.56, 2760.43, 2074.4, 1903.32, 2140.04]</t>
+          <t>[3168.17, 1764.89, 1315.56, 1260.56, 1335.97]</t>
         </is>
       </c>
     </row>
@@ -9135,7 +8375,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>[65.59220035061544, 41.80411178686272, 40.34154016321186, 34.42707096123215]</t>
+          <t>[65.59220035061544, 44.49840791663598, 40.34154016321186, 35.111773289324844]</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -9145,12 +8385,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>[51.84, 26.64, 18.37, 26.03]</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>[2943.02, 2091.94, 1475.81, 1900.13]</t>
+          <t>[1913.1, 1342.58, 900.81, 1219.71]</t>
         </is>
       </c>
     </row>
@@ -9202,12 +8437,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>[48.39, 32.99, 29.59, 30.19, 29.87]</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>[3648.84, 3431.57, 1433.73, 2125.17, 2132.86]</t>
+          <t>[2252.34, 2269.25, 1031.66, 1492.46, 1396.74]</t>
         </is>
       </c>
     </row>
@@ -9259,12 +8489,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>[49.79, 48.8, 40.85, 31.54, 35.57]</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>[4451.48, 3388.46, 2178.55, 1794.28, 1920.05]</t>
+          <t>[2917.21, 2102.36, 1422.14, 1082.87, 1285.64]</t>
         </is>
       </c>
     </row>
@@ -9306,7 +8531,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>[50.053325925775944, 54.18882265823431, 46.83828993278229, 54.53075627474537]</t>
+          <t>[50.053325925775944, 55.46754449448963, 46.83828993278229, 54.53075627474537]</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -9316,12 +8541,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>[35.05, 17.6, 34.31, 29.43]</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>[2608.59, 1838.36, 2257.06, 2606.84]</t>
+          <t>[1829.59, 1240.66, 1534.33, 1756.01]</t>
         </is>
       </c>
     </row>
@@ -9373,12 +8593,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>[40.85, 37.21, 33.39, 35.0]</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>[3125.14, 3774.51, 1384.96, 1969.35]</t>
+          <t>[1986.6, 2392.36, 950.32, 1270.02]</t>
         </is>
       </c>
     </row>
@@ -9430,12 +8645,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>[35.34, 33.73, 30.51, 32.52, 30.27]</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>[3543.97, 1749.36, 2079.71, 2341.38, 1377.57]</t>
+          <t>[2344.5, 1201.81, 1376.81, 1367.23, 1008.61]</t>
         </is>
       </c>
     </row>
@@ -9487,12 +8697,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>[33.58, 56.71, 28.24, 31.91, 37.67]</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>[1910.7, 3826.38, 1605.87, 1789.63, 2617.6]</t>
+          <t>[1265.13, 2425.33, 1038.1, 1156.66, 1883.33]</t>
         </is>
       </c>
     </row>
@@ -9544,12 +8749,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>[36.66, 36.15, 37.22, 28.44, 30.02]</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>[2302.41, 2528.65, 3332.05, 1538.25, 1812.22]</t>
+          <t>[1662.52, 1378.0, 2126.7, 1095.04, 1215.1]</t>
         </is>
       </c>
     </row>
@@ -9601,12 +8801,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>[33.77, 30.09, 29.92, 52.7]</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>[1815.96, 1712.94, 2365.28, 2726.63]</t>
+          <t>[1267.69, 1126.32, 1474.64, 1720.77]</t>
         </is>
       </c>
     </row>
@@ -9658,12 +8853,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>[35.11, 36.66, 34.51, 28.37, 29.81]</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>[3295.55, 3369.62, 3394.88, 1560.56, 1548.11]</t>
+          <t>[2232.95, 2187.72, 2397.83, 1100.24, 1055.0]</t>
         </is>
       </c>
     </row>
@@ -9715,12 +8905,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>[38.63, 54.94, 33.86, 30.59, 31.4]</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>[3165.1, 5151.58, 3139.1, 1784.64, 1630.89]</t>
+          <t>[2136.57, 3036.17, 1885.03, 1193.45, 1108.53]</t>
         </is>
       </c>
     </row>
@@ -9772,12 +8957,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>[48.09, 51.85, 50.4, 38.86, 35.65]</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>[3088.05, 3300.27, 3979.53, 2981.17, 1952.73]</t>
+          <t>[1994.04, 1994.39, 2471.22, 1921.9, 1324.43]</t>
         </is>
       </c>
     </row>
@@ -9829,12 +9009,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>[38.74, 52.67, 13.91, 38.85, 31.7]</t>
-        </is>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>[3016.43, 4426.21, 1698.1, 2935.74, 2102.34]</t>
+          <t>[1972.37, 2844.69, 977.13, 1824.35, 1399.1]</t>
         </is>
       </c>
     </row>
@@ -9886,12 +9061,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>[24.56, 19.64, 22.31, 8.21, 6.07]</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>[1508.54, 1029.76, 1065.86, 748.42, 1122.19]</t>
+          <t>[955.89, 848.36, 716.73, 508.58, 602.43]</t>
         </is>
       </c>
     </row>
@@ -9943,12 +9113,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>[58.06, 41.17, 41.85, 42.75, 37.8]</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>[3913.06, 2989.95, 2541.64, 2913.38, 2004.87]</t>
+          <t>[2597.02, 1782.26, 1477.97, 1830.67, 1369.12]</t>
         </is>
       </c>
     </row>
@@ -9990,7 +9155,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>[60.25873800319736, 60.48569468170554, 42.3027296931186, 47.68096037862776, 56.76359569891682]</t>
+          <t>[60.25873800319736, 60.48569468170554, 47.94263009757184, 49.60872376972494, 56.76359569891682]</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -10000,12 +9165,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>[47.3, 43.7, 38.31, 40.81, 49.3]</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>[3479.4, 3069.47, 2923.52, 2682.39, 3057.12]</t>
+          <t>[2080.45, 1956.4, 1785.11, 1690.46, 1879.12]</t>
         </is>
       </c>
     </row>
@@ -10047,7 +9207,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>[50.58950822541044, 31.73156071993472, 54.59299741669123, 37.42791112193683]</t>
+          <t>[50.58950822541044, 31.73156071993472, 54.59299741669123, 39.67477359662659]</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -10057,12 +9217,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>[52.26, 21.02, 51.98, 26.2]</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>[3161.51, 1230.04, 3132.06, 1623.22]</t>
+          <t>[1978.55, 739.28, 1823.32, 1085.12]</t>
         </is>
       </c>
     </row>
@@ -10114,12 +9269,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>[66.65, 40.28, 44.89, 30.13, 29.09]</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>[4832.46, 2598.28, 2696.86, 1820.24, 1975.83]</t>
+          <t>[3048.54, 1572.75, 1641.87, 1189.13, 1166.42]</t>
         </is>
       </c>
     </row>
@@ -10171,12 +9321,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>[48.24, 25.65, 19.5, 41.38, 34.29]</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>[3473.88, 1743.77, 1285.28, 2938.79, 2198.88]</t>
+          <t>[2048.67, 1006.04, 847.5, 1778.64, 1501.4]</t>
         </is>
       </c>
     </row>
@@ -10228,12 +9373,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>[35.05, 43.3, 26.13, 19.73]</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>[2513.76, 2470.54, 1938.56, 1042.57]</t>
+          <t>[1485.64, 1553.65, 1116.38, 651.69]</t>
         </is>
       </c>
     </row>
@@ -10285,12 +9425,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>[49.57, 16.99, 14.33, 29.66, 31.96]</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>[2816.96, 1429.31, 1128.57, 2059.34, 788.45]</t>
+          <t>[1754.16, 875.4, 800.24, 1151.25, 477.27]</t>
         </is>
       </c>
     </row>
@@ -10342,12 +9477,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>[21.62, 11.18, 28.05, 39.96]</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>[1565.89, 1052.97, 1374.26, 2796.34]</t>
+          <t>[954.72, 679.21, 934.64, 1759.48]</t>
         </is>
       </c>
     </row>
@@ -10389,7 +9519,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>[68.19823150131346, 50.72534980711682, 36.60606834129295, 44.01959602570379, 45.982431852306505]</t>
+          <t>[68.19823150131346, 50.72534980711682, 43.92630537701281, 44.01959602570379, 45.982431852306505]</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -10399,12 +9529,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>[27.44, 51.17, 24.39, 37.61, 14.38]</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>[2670.9, 2326.2, 2293.48, 2401.36, 1598.65]</t>
+          <t>[1788.04, 1427.99, 1616.58, 1521.37, 1018.25]</t>
         </is>
       </c>
     </row>
@@ -10446,7 +9571,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>[68.79261310613362, 54.99305771150874, 43.23190887796638, 44.244233704934715, 38.80886227193451]</t>
+          <t>[68.79261310613362, 54.99305771150874, 44.23322244756983, 44.244233704934715, 38.80886227193451]</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -10456,12 +9581,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>[41.9, 51.84, 27.38, 43.53, 33.38]</t>
-        </is>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>[3382.62, 2853.53, 1559.87, 2682.21, 2366.24]</t>
+          <t>[1914.13, 1739.42, 1037.38, 1650.72, 1568.7]</t>
         </is>
       </c>
     </row>
@@ -10503,7 +9623,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>[48.035692065351746, 48.45878106973101, 38.57017075177147, 46.52705945420948]</t>
+          <t>[48.035692065351746, 48.45878106973101, 39.83286197171259, 46.52705945420948]</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -10513,12 +9633,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>[24.54, 26.59, 39.78, 26.09]</t>
-        </is>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>[1661.47, 1676.74, 2536.49, 1531.81]</t>
+          <t>[1145.95, 1046.87, 1611.99, 1044.06]</t>
         </is>
       </c>
     </row>
@@ -10560,7 +9675,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>[50.145745329984656, 49.6719952750303, 49.36446614513956, 41.6299816516464]</t>
+          <t>[50.145745329984656, 52.25541578742293, 51.2099533589627, 41.66311571497989]</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -10570,12 +9685,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>[48.04, 43.37, 38.32, 39.52]</t>
-        </is>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>[2877.06, 3003.76, 2596.94, 2966.75]</t>
+          <t>[1830.79, 1766.58, 1636.18, 1925.53]</t>
         </is>
       </c>
     </row>
@@ -10617,7 +9727,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>[57.857280848745035, 58.129612613075466, 44.937474645497396, 52.133408153084204, 42.83772043860671]</t>
+          <t>[57.857280848745035, 58.129612613075466, 44.937474645497396, 52.133408153084204, 45.20458580980537]</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -10627,12 +9737,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>[47.33, 47.42, 23.3, 44.04, 38.74]</t>
-        </is>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>[3282.94, 3085.41, 1516.0, 3082.94, 2895.61]</t>
+          <t>[2001.0, 1983.99, 1009.11, 1817.84, 1858.79]</t>
         </is>
       </c>
     </row>
@@ -10684,12 +9789,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>[46.38, 38.56, 45.84, 34.75]</t>
-        </is>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>[3014.01, 2740.58, 2839.36, 1736.74]</t>
+          <t>[1861.42, 1805.32, 1663.76, 1118.32]</t>
         </is>
       </c>
     </row>
@@ -10731,7 +9831,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>[57.23390227948497, 40.91426866452167, 45.659098784873024, 42.808013338089694, 44.476992343223145]</t>
+          <t>[57.23390227948497, 41.566624204448686, 45.659098784873024, 42.808013338089694, 44.476992343223145]</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -10741,12 +9841,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>[38.0, 37.81, 33.86, 22.15, 14.59]</t>
-        </is>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>[2870.19, 1912.9, 1856.08, 1611.52, 1487.0]</t>
+          <t>[1793.7, 1263.83, 1070.96, 1096.93, 856.83]</t>
         </is>
       </c>
     </row>
@@ -10788,7 +9883,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>[49.848754804992986, 25.044080715223387, 34.82187242593553, 43.31543239264254]</t>
+          <t>[49.848754804992986, 25.044080715223387, 37.58861993140807, 43.31543239264254]</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -10798,12 +9893,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>[22.22, 61.81, 29.93, 39.99]</t>
-        </is>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>[1853.96, 1468.77, 1860.87, 2474.69]</t>
+          <t>[1080.44, 870.93, 1104.29, 1664.06]</t>
         </is>
       </c>
     </row>
@@ -10845,7 +9935,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>[40.44347375302254, 43.417592702492655, 45.48012024600407, 47.75760437325402, 54.253969645333584]</t>
+          <t>[40.44347375302254, 43.417592702492655, 45.48012024600407, 47.75760437325402, 54.28551152262317]</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -10855,12 +9945,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>[16.51, 25.35, 25.88, 17.5, 37.91]</t>
-        </is>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>[1033.49, 1491.82, 1415.36, 1246.13, 2682.08]</t>
+          <t>[708.26, 973.78, 851.84, 950.86, 1765.7]</t>
         </is>
       </c>
     </row>
@@ -10912,12 +9997,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>[3.42, 20.24, 38.56, 15.35]</t>
-        </is>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>[842.59, 920.9, 1863.88, 922.01]</t>
+          <t>[495.01, 572.77, 1196.41, 557.33]</t>
         </is>
       </c>
     </row>
@@ -10969,12 +10049,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>[11.37, 16.2, 35.97, 47.97, 39.61]</t>
-        </is>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>[1295.11, 1562.99, 2228.66, 3919.58, 3044.11]</t>
+          <t>[737.52, 1061.49, 1313.64, 2475.28, 1965.55]</t>
         </is>
       </c>
     </row>
@@ -11026,12 +10101,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>[22.02, 21.96, 28.07, 22.43, 35.22]</t>
-        </is>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>[1333.27, 1420.77, 1599.01, 1658.95, 1770.1]</t>
+          <t>[1048.95, 907.1, 1071.1, 976.3, 1160.37]</t>
         </is>
       </c>
     </row>
@@ -11073,7 +10143,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>[53.2065801772237, 47.77432462178365, 45.96955384330168, 51.61775720306372, 47.61255454756477]</t>
+          <t>[53.2065801772237, 47.77432462178365, 48.94784236685602, 51.61775720306372, 47.61255454756477]</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -11083,12 +10153,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>[29.87, 24.59, 39.25, 22.59, 40.72]</t>
-        </is>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>[1762.94, 1729.74, 2819.52, 2087.57, 2394.64]</t>
+          <t>[1139.38, 1148.82, 1714.2, 1194.71, 1469.29]</t>
         </is>
       </c>
     </row>
@@ -11130,7 +10195,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>[51.89345752112981, 57.20964029190276, 35.29995524145951, 46.156128299028936]</t>
+          <t>[51.89345752112981, 57.20964029190276, 35.81030271740738, 46.156128299028936]</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -11140,12 +10205,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>[25.1, 33.18, 12.48, 44.62]</t>
-        </is>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>[1873.26, 2321.13, 1302.35, 2580.55]</t>
+          <t>[1165.13, 1398.48, 812.72, 1739.22]</t>
         </is>
       </c>
     </row>
@@ -11187,7 +10247,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>[61.9766647991309, 58.2233352748794, 61.98139544566903, 52.11777811910106, 37.261572671446274]</t>
+          <t>[61.9766647991309, 58.2233352748794, 61.98139544566903, 53.30163716063075, 37.261572671446274]</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -11197,12 +10257,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>[16.7, 25.12, 22.84, 43.18, 34.51]</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>[2163.76, 2274.3, 2137.02, 2993.65, 2048.71]</t>
+          <t>[1342.58, 1405.39, 1287.86, 1898.13, 1387.73]</t>
         </is>
       </c>
     </row>
@@ -11254,12 +10309,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>[41.68, 30.83, 31.62]</t>
-        </is>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>[1614.47, 1535.99, 1687.05]</t>
+          <t>[967.21, 919.19, 1128.56]</t>
         </is>
       </c>
     </row>
@@ -11301,7 +10351,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>[53.68828376735293, 43.377391130437346, 48.74357657258133, 41.14268226154996, 44.27160649780228]</t>
+          <t>[53.68828376735293, 43.377391130437346, 48.74357657258133, 43.16703085209141, 44.608014736142835]</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -11311,12 +10361,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>[13.41, 29.46, 27.74, 33.18, 38.27]</t>
-        </is>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>[1648.71, 1648.76, 1609.09, 2027.44, 2388.8]</t>
+          <t>[976.12, 1134.31, 1052.66, 1285.53, 1600.29]</t>
         </is>
       </c>
     </row>
@@ -11368,12 +10413,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>[25.39, 24.22, 21.81, 38.94]</t>
-        </is>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>[1557.09, 1515.67, 1406.85, 2404.01]</t>
+          <t>[1063.69, 978.2, 914.58, 1550.81]</t>
         </is>
       </c>
     </row>
@@ -11425,12 +10465,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>[20.17, 26.03, 28.16, 36.68, 38.81]</t>
-        </is>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>[1666.47, 836.04, 1659.52, 2236.81, 2608.12]</t>
+          <t>[1021.51, 503.62, 1008.04, 1376.99, 1696.97]</t>
         </is>
       </c>
     </row>
@@ -11482,12 +10517,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>[30.56, 34.63, 25.97, 43.54, 39.54]</t>
-        </is>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>[2301.03, 2065.16, 1253.43, 2816.63, 2455.85]</t>
+          <t>[1403.71, 1220.88, 778.44, 1932.09, 1470.15]</t>
         </is>
       </c>
     </row>
@@ -11529,7 +10559,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>[46.57173532700492, 56.080468547156684, 44.02537247200663, 60.98742522842256]</t>
+          <t>[46.57173532700492, 56.080468547156684, 44.4725795868583, 60.98742522842256]</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -11539,12 +10569,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>[26.14, 24.69, 41.16, 28.34]</t>
-        </is>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>[1682.77, 1833.37, 2674.13, 2493.01]</t>
+          <t>[1081.13, 1114.06, 1708.63, 1435.02]</t>
         </is>
       </c>
     </row>
@@ -11596,12 +10621,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>[16.36, 8.91, 13.96, 19.65]</t>
-        </is>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>[1563.38, 1159.8, 1733.48, 1657.72]</t>
+          <t>[1049.39, 659.85, 998.74, 960.06]</t>
         </is>
       </c>
     </row>
@@ -11653,12 +10673,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>[31.05, 43.79, 33.91, 40.31, 34.01]</t>
-        </is>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>[2480.36, 2586.28, 1818.22, 2127.72, 2462.92]</t>
+          <t>[1481.61, 1551.17, 1121.59, 1317.81, 1648.22]</t>
         </is>
       </c>
     </row>
@@ -11710,12 +10725,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>[20.44, 32.06, 22.31, 33.98, 40.36]</t>
-        </is>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>[1541.56, 1028.41, 1725.22, 2160.82, 2410.77]</t>
+          <t>[985.97, 616.31, 1082.35, 1379.87, 1487.48]</t>
         </is>
       </c>
     </row>
@@ -11757,7 +10767,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>[49.73054714065087, 53.71138958600298, 53.72219393881761, 38.66205885125481]</t>
+          <t>[57.35624313697035, 53.71138958600298, 53.72219393881761, 38.81427548472851]</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -11767,12 +10777,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>[39.87, 24.9, 19.22, 27.16]</t>
-        </is>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>[3092.92, 1805.23, 1661.33, 1603.56]</t>
+          <t>[2037.62, 1091.5, 969.99, 1101.21]</t>
         </is>
       </c>
     </row>
@@ -11814,7 +10819,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>[81.89653300771957, 109.53324350786829, 141.2292735899164, 82.5716887489271, 49.205638414600955]</t>
+          <t>[164.15409737290275, 109.53324350786829, 168.31137431660648, 82.5716887489271, 49.205638414600955]</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -11824,12 +10829,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>[20.66, 41.61, 31.88, 42.33, 24.3]</t>
-        </is>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>[4677.17, 6660.5, 6380.36, 5177.92, 2553.56]</t>
+          <t>[3921.49, 4515.77, 5196.36, 3479.29, 1383.73]</t>
         </is>
       </c>
     </row>
@@ -11881,12 +10881,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>[23.16, 49.09, 50.22, 41.71, 43.69]</t>
-        </is>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>[7057.69, 6006.67, 6486.72, 5663.95, 6333.08]</t>
+          <t>[5153.1, 3941.48, 4127.03, 3840.69, 3922.26]</t>
         </is>
       </c>
     </row>
@@ -11928,7 +10923,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>[76.83103824508484, 94.81496137137239, 73.30514130970035, 82.95164910603083]</t>
+          <t>[77.62472758532115, 94.81496137137239, 73.30514130970035, 82.95164910603083]</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -11938,12 +10933,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>[30.33, 42.72, 25.15, 40.33]</t>
-        </is>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>[3077.9, 5250.65, 2277.59, 4503.87]</t>
+          <t>[1913.49, 3299.95, 1480.68, 2918.93]</t>
         </is>
       </c>
     </row>
@@ -11985,7 +10975,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>[116.48300160080842, 112.51200310334104, 115.02778525887447, 86.9917518038565, 96.092850775741]</t>
+          <t>[116.48300160080842, 112.51200310334104, 115.02778525887447, 108.49233395578281, 96.092850775741]</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -11995,12 +10985,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>[35.72, 55.33, 38.5, 28.24, 39.06]</t>
-        </is>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>[5951.83, 6463.92, 5483.75, 4117.98, 4173.12]</t>
+          <t>[4185.52, 4152.64, 3509.8, 2618.32, 2632.47]</t>
         </is>
       </c>
     </row>
@@ -12052,12 +11037,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>[36.08, 50.61, 44.72, 49.34]</t>
-        </is>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>[6025.11, 6448.76, 5441.42, 5978.45]</t>
+          <t>[4063.14, 4038.88, 3424.22, 3852.9]</t>
         </is>
       </c>
     </row>
@@ -12099,7 +11079,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>[119.59166161793986, 105.63466739118378, 83.31105115044693, 123.89391953506376, 96.05097011843537]</t>
+          <t>[119.59166161793986, 105.63466739118378, 114.9194608496889, 123.89391953506376, 96.05097011843537]</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -12109,12 +11089,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>[51.81, 51.73, 22.27, 25.16, 38.91]</t>
-        </is>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>[6374.96, 6741.97, 4172.37, 3519.4, 4908.04]</t>
+          <t>[4132.25, 4461.91, 3065.92, 2666.45, 3144.7]</t>
         </is>
       </c>
     </row>
@@ -12156,7 +11131,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>[72.30789729583627, 116.7898611632601, 109.45108780870713, 76.95943885884616]</t>
+          <t>[122.61401801841807, 116.7898611632601, 109.45108780870713, 79.38032638249942]</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -12166,12 +11141,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>[24.8, 37.58, 37.02, 34.13]</t>
-        </is>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>[4366.61, 5760.42, 4993.86, 4103.96]</t>
+          <t>[3147.13, 3983.21, 3251.69, 2611.45]</t>
         </is>
       </c>
     </row>
@@ -12223,12 +11193,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>[37.4, 36.7, 25.83, 26.76, 37.21]</t>
-        </is>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>[6341.58, 6703.22, 4755.62, 2652.89, 3702.18]</t>
+          <t>[4452.52, 4875.54, 3454.44, 1726.48, 2447.56]</t>
         </is>
       </c>
     </row>
@@ -12270,7 +11235,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>[121.23201910947378, 86.82799092409577, 88.79506977177493, 99.2607604187218]</t>
+          <t>[121.23201910947378, 138.31914765306993, 88.79506977177493, 99.2607604187218]</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -12280,12 +11245,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>[46.39, 18.1, 48.28, 39.63]</t>
-        </is>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>[6267.29, 5026.62, 5502.12, 5017.13]</t>
+          <t>[4143.23, 3710.5, 3499.57, 3051.02]</t>
         </is>
       </c>
     </row>
@@ -12327,7 +11287,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>[122.24700325705118, 107.62958521647937, 120.01040460012594, 97.75842998277534]</t>
+          <t>[122.24700325705118, 107.62958521647937, 133.72387348710558, 97.75842998277534]</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -12337,12 +11297,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>[41.27, 41.65, 16.59, 38.19]</t>
-        </is>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>[6986.61, 5554.68, 4662.12, 4823.18]</t>
+          <t>[4589.49, 3713.38, 2974.77, 2964.04]</t>
         </is>
       </c>
     </row>
@@ -12394,12 +11349,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>[44.49, 48.59, 50.82, 38.52]</t>
-        </is>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>[6197.47, 6027.4, 6881.34, 4338.1]</t>
+          <t>[4068.88, 3788.95, 4401.37, 2700.4]</t>
         </is>
       </c>
     </row>
@@ -12441,7 +11391,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>[174.57197885136426, 98.53841043891951, 36.454676464093595, 45.34061720766669, 82.08703548120727]</t>
+          <t>[174.57197885136426, 98.53841043891951, 45.38927977980782, 51.63979626339621, 82.08703548120727]</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -12451,12 +11401,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>[22.44, 45.48, 20.69, 34.28, 38.87]</t>
-        </is>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>[4690.96, 5656.09, 2255.94, 2469.19, 4431.7]</t>
+          <t>[3893.0, 3728.9, 1487.93, 1632.97, 2700.17]</t>
         </is>
       </c>
     </row>
@@ -12508,12 +11453,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>[44.93, 41.08, 38.57, 18.66, 17.02]</t>
-        </is>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>[6199.74, 6227.49, 4530.56, 1909.16, 2044.78]</t>
+          <t>[4087.63, 4310.43, 2851.77, 1187.57, 1212.44]</t>
         </is>
       </c>
     </row>
@@ -12555,7 +11495,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>[88.53617278989339, 92.34903194277683, 74.98092399203962, 97.04134456299829, 86.06634832881973]</t>
+          <t>[103.88216487418556, 92.34903194277683, 74.98092399203962, 97.04134456299829, 86.06634832881973]</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -12565,12 +11505,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>[36.41, 40.64, 19.31, 37.91, 36.49]</t>
-        </is>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>[4637.82, 4456.26, 2249.86, 4736.51, 3978.47]</t>
+          <t>[2898.24, 2763.89, 1429.91, 3013.09, 2459.02]</t>
         </is>
       </c>
     </row>
@@ -12622,12 +11557,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>[22.96, 44.07, 43.09, 40.46]</t>
-        </is>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>[3575.67, 5330.24, 5384.82, 4814.78]</t>
+          <t>[2623.35, 3736.77, 3565.83, 3256.03]</t>
         </is>
       </c>
     </row>
@@ -12669,7 +11599,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>[83.89607474020511, 97.2397734752379, 106.50785944206129]</t>
+          <t>[108.84970178339648, 97.2397734752379, 106.50785944206129]</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -12679,12 +11609,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>[25.94, 31.15, 38.54]</t>
-        </is>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>[5162.06, 3619.04, 5146.86]</t>
+          <t>[3386.36, 2168.6, 3216.2]</t>
         </is>
       </c>
     </row>
@@ -12736,12 +11661,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>[49.81, 44.3, 37.71, 37.11]</t>
-        </is>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>[5614.22, 6304.38, 4567.92, 4051.46]</t>
+          <t>[3717.39, 4107.63, 2991.59, 2543.3]</t>
         </is>
       </c>
     </row>
@@ -12783,7 +11703,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>[111.84684750185242, 132.2980467286539, 84.6966674554803, 71.73788372755605, 98.19383232822268]</t>
+          <t>[111.84684750185242, 132.2980467286539, 84.72101899885605, 72.35496327461064, 101.39888314967175]</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -12793,12 +11713,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>[38.97, 16.99, 40.36, 21.07, 37.3]</t>
-        </is>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>[6032.05, 3073.77, 4500.99, 2947.02, 5173.34]</t>
+          <t>[4206.4, 2699.07, 2820.24, 2032.39, 3375.57]</t>
         </is>
       </c>
     </row>
@@ -12840,7 +11755,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>[43.94096479038257, 20.09014005667451, 17.78847674177972, 7.840086598496155]</t>
+          <t>[43.94096479038257, 21.76242034320508, 17.78847674177972, 7.840086598496155]</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -12850,12 +11765,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>[14.54, 21.45, 10.38, 36.61]</t>
-        </is>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>[999.47, 894.71, 872.19, 834.45]</t>
+          <t>[676.59, 589.63, 513.66, 592.21]</t>
         </is>
       </c>
     </row>
@@ -12907,12 +11817,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>[39.38, 15.91, 17.41, 32.21]</t>
-        </is>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>[1928.08, 1077.68, 850.86, 1206.88]</t>
+          <t>[1291.32, 651.7, 520.82, 846.83]</t>
         </is>
       </c>
     </row>
@@ -12964,12 +11869,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>[16.26, 9.09, 7.76, 17.81, 11.68]</t>
-        </is>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>[872.84, 459.93, 591.72, 927.49, 696.83]</t>
+          <t>[588.16, 266.36, 355.33, 586.96, 461.19]</t>
         </is>
       </c>
     </row>
@@ -13021,12 +11921,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>[19.55, 38.0, 21.17, 27.7, 42.1]</t>
-        </is>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>[739.57, 1514.3, 708.32, 1303.92, 1038.6]</t>
+          <t>[565.6, 938.5, 434.38, 857.45, 744.82]</t>
         </is>
       </c>
     </row>
@@ -13068,7 +11963,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>[47.06599937196975, 28.525565954823104, 34.57592419896296, 28.575084449788115]</t>
+          <t>[47.06599937196975, 28.525565954823104, 34.57592419896296, 29.865884446819543]</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -13078,12 +11973,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>[21.01, 39.62, 15.15, 27.27]</t>
-        </is>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>[1457.49, 1709.96, 994.3, 1202.59]</t>
+          <t>[932.33, 1101.58, 613.27, 804.73]</t>
         </is>
       </c>
     </row>
@@ -13125,7 +12015,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>[31.279380145466384, 29.069519528151783, 33.90569525037896]</t>
+          <t>[33.98500949917872, 29.069519528151783, 33.90569525037896]</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -13135,12 +12025,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>[31.71, 35.18, 17.84]</t>
-        </is>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>[1702.0, 1128.41, 1148.61]</t>
+          <t>[1098.38, 675.35, 713.02]</t>
         </is>
       </c>
     </row>
@@ -13192,12 +12077,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>[21.59, 27.67, 27.22, 17.36, 35.0]</t>
-        </is>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>[1243.12, 881.92, 1326.35, 882.61, 1583.3]</t>
+          <t>[832.74, 513.95, 879.09, 562.72, 1037.58]</t>
         </is>
       </c>
     </row>
@@ -13249,12 +12129,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>[27.19, 19.43, 18.47, 24.58, 24.14]</t>
-        </is>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>[1398.13, 1148.47, 804.87, 1047.94, 1115.54]</t>
+          <t>[849.19, 678.25, 474.92, 705.89, 701.98]</t>
         </is>
       </c>
     </row>
@@ -13306,12 +12181,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>[25.02, 29.7, 25.65, 19.65]</t>
-        </is>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>[1276.1, 1024.73, 1183.29, 837.0]</t>
+          <t>[799.89, 668.76, 759.49, 550.16]</t>
         </is>
       </c>
     </row>
@@ -13363,12 +12233,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>[21.83, 5.02, 59.88, 15.66]</t>
-        </is>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>[826.4, 419.14, 991.49, 805.3]</t>
+          <t>[517.54, 241.9, 574.3, 476.19]</t>
         </is>
       </c>
     </row>
@@ -13410,7 +12275,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>[25.83791902140086, 36.002819145931184, 32.19618190968322, 9.143366041528598, 25.26231351811284]</t>
+          <t>[25.83791902140086, 36.002819145931184, 32.19618190968322, 9.143366041528598, 25.779647544293184]</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -13420,12 +12285,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>[13.78, 35.62, 13.9, 3.58, 25.08]</t>
-        </is>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>[696.54, 1749.93, 1013.88, 850.7, 1109.22]</t>
+          <t>[482.87, 1215.73, 559.35, 547.29, 796.26]</t>
         </is>
       </c>
     </row>
@@ -13477,12 +12337,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>[14.92, 20.65, 16.47, 3.17, 31.55]</t>
-        </is>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>[743.67, 803.59, 926.89, 575.88, 1284.7]</t>
+          <t>[475.45, 533.22, 594.65, 381.51, 767.57]</t>
         </is>
       </c>
     </row>
@@ -13534,12 +12389,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>[20.32, 21.85, 14.49, 16.14]</t>
-        </is>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>[1127.0, 783.75, 657.33, 587.97]</t>
+          <t>[711.28, 497.32, 431.86, 436.02]</t>
         </is>
       </c>
     </row>
@@ -13591,12 +12441,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>[35.15, 24.53, 14.6, 6.0, 19.59]</t>
-        </is>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>[1392.79, 987.1, 856.18, 508.87, 782.57]</t>
+          <t>[815.93, 630.29, 493.2, 393.9, 500.35]</t>
         </is>
       </c>
     </row>
@@ -13648,12 +12493,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>[23.38, 3.35, 15.16, 22.1, 16.72]</t>
-        </is>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>[894.38, 597.15, 849.83, 940.72, 794.59]</t>
+          <t>[641.95, 364.38, 519.14, 600.81, 517.98]</t>
         </is>
       </c>
     </row>
@@ -13705,12 +12545,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>[20.36, 10.61, 8.74, 28.19, 21.12]</t>
-        </is>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>[547.03, 916.71, 690.37, 832.85, 1019.55]</t>
+          <t>[499.7, 548.57, 425.07, 521.16, 621.2]</t>
         </is>
       </c>
     </row>
@@ -13752,7 +12587,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>[33.23651827964486, 9.189353482020653, 34.69396429622334, 15.216845994575397, 10.757067596112488]</t>
+          <t>[33.23651827964486, 9.189353482020653, 34.69396429622334, 15.216845994575397, 17.779356779781597]</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -13762,12 +12597,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>[24.92, 1.76, 25.87, 14.05, 21.17]</t>
-        </is>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>[933.03, 544.19, 1221.89, 536.11, 1099.52]</t>
+          <t>[597.9, 433.98, 832.83, 401.77, 760.91]</t>
         </is>
       </c>
     </row>
@@ -13819,12 +12649,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>[30.23, 16.42, 15.59]</t>
-        </is>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>[1319.6, 1287.59, 691.5]</t>
+          <t>[846.74, 761.42, 493.49]</t>
         </is>
       </c>
     </row>
@@ -13876,12 +12701,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>[37.96, 34.03, 24.42, 46.47, 31.68]</t>
-        </is>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>[3790.51, 3765.53, 1971.07, 5051.8, 3597.65]</t>
+          <t>[2651.16, 2690.75, 1363.64, 3336.93, 2298.88]</t>
         </is>
       </c>
     </row>
@@ -13933,12 +12753,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>[37.72, 32.44, 38.08]</t>
-        </is>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>[3908.41, 3870.32, 4053.53]</t>
+          <t>[2682.9, 2547.71, 2766.85]</t>
         </is>
       </c>
     </row>
@@ -13990,12 +12805,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>[23.28, 15.18, 16.86, 16.44, 13.86]</t>
-        </is>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>[1792.79, 1765.17, 1451.71, 1526.6, 1278.05]</t>
+          <t>[1271.2, 1181.1, 1106.41, 939.01, 932.02]</t>
         </is>
       </c>
     </row>
@@ -14047,12 +12857,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>[35.66, 43.02, 38.31, 43.36]</t>
-        </is>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>[3617.45, 4328.19, 3956.74, 4044.7]</t>
+          <t>[2414.32, 2862.58, 2682.53, 2755.08]</t>
         </is>
       </c>
     </row>
@@ -14094,7 +12899,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>[71.106232705292, 96.15495411619591, 65.67660216264514, 73.73411364944701, 58.56095644866002]</t>
+          <t>[71.106232705292, 96.15495411619591, 65.67660216264514, 73.73411364944701, 61.260286764677915]</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -14104,12 +12909,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>[19.57, 36.57, 34.54, 36.23, 24.78]</t>
-        </is>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>[2593.87, 4264.81, 3677.14, 3646.02, 2169.92]</t>
+          <t>[1611.36, 2751.84, 2577.38, 2384.9, 1676.94]</t>
         </is>
       </c>
     </row>
@@ -14151,7 +12951,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>[79.49945389433788, 73.56598326042445, 81.96621023415159, 70.75177230195435, 21.316844434874618]</t>
+          <t>[79.49945389433788, 74.65011819385437, 81.96621023415159, 70.75177230195435, 23.12673229225225]</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -14161,12 +12961,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>[69.25, 23.25, 32.31, 36.06, 28.39]</t>
-        </is>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>[5177.13, 2459.74, 3795.08, 3558.7, 1321.26]</t>
+          <t>[3186.68, 1606.47, 2581.93, 2384.15, 777.98]</t>
         </is>
       </c>
     </row>
@@ -14208,7 +13003,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>[68.28671736692192, 55.07209620061437, 76.88037494488009, 77.63875309291555, 76.37742410768058]</t>
+          <t>[68.28671736692192, 60.70508694870712, 76.88037494488009, 77.63875309291555, 76.37742410768058]</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -14218,12 +13013,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>[38.3, 19.53, 40.21, 38.27, 37.77]</t>
-        </is>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>[3215.64, 2124.13, 3828.36, 4128.04, 3775.71]</t>
+          <t>[2320.35, 1495.68, 2488.66, 2718.54, 2441.06]</t>
         </is>
       </c>
     </row>
@@ -14265,7 +13055,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>[85.5380072789046, 57.9871083012337, 73.28250781145866, 73.61167975208603]</t>
+          <t>[85.5380072789046, 61.335198580795144, 73.28250781145866, 73.61167975208603]</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -14275,12 +13065,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>[48.72, 33.94, 42.91, 32.95]</t>
-        </is>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>[4841.05, 3131.98, 4247.64, 3042.72]</t>
+          <t>[3075.62, 1903.13, 2826.71, 1946.85]</t>
         </is>
       </c>
     </row>
@@ -14332,12 +13117,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>[34.51, 23.13, 36.56, 16.53]</t>
-        </is>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>[3233.5, 2090.13, 3454.0, 2057.24]</t>
+          <t>[2123.25, 1570.03, 2422.96, 1544.71]</t>
         </is>
       </c>
     </row>
@@ -14379,7 +13159,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>[74.99195348026711, 56.33004207504574, 71.99354090994024, 68.58767292963623, 61.98603767960617]</t>
+          <t>[74.99195348026711, 68.43345987392777, 71.99354090994024, 68.58767292963623, 61.98603767960617]</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -14389,12 +13169,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>[37.46, 35.94, 35.82, 37.68, 33.8]</t>
-        </is>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>[3963.99, 3510.44, 3726.71, 3617.19, 3211.24]</t>
+          <t>[2635.6, 2409.28, 2547.94, 2379.06, 2042.14]</t>
         </is>
       </c>
     </row>
@@ -14436,7 +13211,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>[91.98831993895153, 57.00210099398542, 58.14010223817689, 83.34426197412056, 78.23504770470348]</t>
+          <t>[91.98831993895153, 66.50627117219223, 59.477846493482744, 83.34426197412056, 78.23504770470348]</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -14446,12 +13221,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>[46.88, 34.71, 35.58, 28.09, 33.41]</t>
-        </is>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>[4268.85, 3284.76, 3266.1, 2821.79, 3877.55]</t>
+          <t>[2926.95, 2202.48, 2157.34, 1841.82, 2591.36]</t>
         </is>
       </c>
     </row>
@@ -14493,7 +13263,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>[62.85715873024555, 84.95128832543377, 61.42911889220887, 62.466719884671306, 67.28984403810175]</t>
+          <t>[68.1189802709657, 84.95128832543377, 61.42911889220887, 62.466719884671306, 67.28984403810175]</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -14503,12 +13273,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>[36.05, 24.27, 30.87, 33.99, 37.86]</t>
-        </is>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>[3751.44, 2547.31, 2904.64, 3080.21, 3800.9]</t>
+          <t>[2502.51, 1688.08, 2058.65, 2158.31, 2577.09]</t>
         </is>
       </c>
     </row>
@@ -14560,12 +13325,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>[32.69, 34.34, 19.37, 32.86, 38.44]</t>
-        </is>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>[3402.32, 3827.19, 2313.69, 3537.53, 3713.07]</t>
+          <t>[2277.03, 2546.16, 1652.95, 2369.73, 2553.44]</t>
         </is>
       </c>
     </row>
@@ -14617,12 +13377,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>[33.34, 34.51, 32.45, 34.9]</t>
-        </is>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>[3927.76, 3833.55, 2964.63, 3216.76]</t>
+          <t>[2673.71, 2654.29, 2027.39, 2148.44]</t>
         </is>
       </c>
     </row>
@@ -14664,7 +13419,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>[62.46556628663662, 83.20783501107924, 63.88434226164987, 66.17905940472042]</t>
+          <t>[62.46556628663662, 83.20783501107924, 63.88434226164987, 71.04225621971156]</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -14674,12 +13429,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>[33.16, 27.52, 38.81, 33.19]</t>
-        </is>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>[3145.19, 2481.03, 3796.9, 3440.37]</t>
+          <t>[2179.82, 1727.47, 2365.17, 2128.08]</t>
         </is>
       </c>
     </row>
@@ -14731,12 +13481,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>[38.46, 33.45, 33.66, 38.21, 22.21]</t>
-        </is>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>[3916.12, 3812.16, 3425.7, 3407.84, 1999.83]</t>
+          <t>[2704.63, 2581.81, 2434.44, 2139.13, 1250.37]</t>
         </is>
       </c>
     </row>
@@ -14778,7 +13523,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>[57.027621531913, 69.64199940988627, 82.21744953012755, 45.897136344401254, 61.28152545425849]</t>
+          <t>[57.62385963194447, 77.97638195862618, 82.21744953012755, 45.897136344401254, 62.04125208817081]</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -14788,12 +13533,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>[39.78, 44.78, 24.37, 14.33, 38.18]</t>
-        </is>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>[3282.98, 4513.35, 2376.34, 1273.03, 3546.06]</t>
+          <t>[2255.55, 2999.53, 1727.42, 820.47, 2331.24]</t>
         </is>
       </c>
     </row>
@@ -14835,7 +13575,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>[77.32101493747103, 71.53541296012651, 61.681046967780105, 71.74034522932703, 66.02533461184161]</t>
+          <t>[77.32101493747103, 71.53541296012651, 61.681046967780105, 73.84080054924254, 66.02533461184161]</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -14845,12 +13585,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>[45.28, 35.79, 34.63, 38.36, 32.72]</t>
-        </is>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>[4157.56, 3567.09, 3397.83, 4055.3, 3316.2]</t>
+          <t>[2932.88, 2440.85, 2388.42, 2654.1, 2130.45]</t>
         </is>
       </c>
     </row>
@@ -14902,12 +13637,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>[31.87, 42.02, 17.79]</t>
-        </is>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>[3984.16, 3663.98, 2348.84]</t>
+          <t>[2601.35, 2483.31, 1442.84]</t>
         </is>
       </c>
     </row>
@@ -14949,7 +13679,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>[135.30297566358792, 57.872110596682454, 35.98428714709064, 85.69976163053337, 99.6385708111309]</t>
+          <t>[135.30297566358792, 57.872110596682454, 37.018613003333506, 85.69976163053337, 99.6385708111309]</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -14959,12 +13689,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>[20.1, 43.63, 10.14, 31.23, 21.88]</t>
-        </is>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>[3742.64, 3243.59, 1054.62, 3453.2, 3006.83]</t>
+          <t>[2784.38, 2260.37, 948.35, 2458.86, 2185.66]</t>
         </is>
       </c>
     </row>
@@ -15016,12 +13741,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>[34.59, 18.77, 11.41, 24.59]</t>
-        </is>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>[2189.33, 2276.93, 1114.7, 1488.1]</t>
+          <t>[1522.77, 1292.36, 624.91, 1021.67]</t>
         </is>
       </c>
     </row>
@@ -15063,7 +13783,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>[68.97138176414914, 108.54768337668654, 66.24501645625095, 76.65118722571502, 92.74044212824369]</t>
+          <t>[68.97138176414914, 108.54768337668654, 71.8738595091785, 76.65118722571502, 92.74044212824369]</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -15073,12 +13793,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>[29.14, 46.87, 29.03, 34.3, 37.58]</t>
-        </is>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>[2541.2, 5359.57, 3416.66, 3593.52, 4000.2]</t>
+          <t>[1777.0, 3439.79, 2277.28, 2374.9, 2807.65]</t>
         </is>
       </c>
     </row>
@@ -15120,7 +13835,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>[75.63966705721867, 84.00427996112951, 73.78340628546596, 96.35215350338551, 95.64368912523202]</t>
+          <t>[86.91647945046755, 84.00427996112951, 74.31013778077963, 96.35215350338551, 95.64368912523202]</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -15130,12 +13845,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>[35.83, 16.24, 29.08, 33.57, 32.16]</t>
-        </is>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>[3994.77, 2258.98, 3540.1, 4073.02, 4121.67]</t>
+          <t>[2674.74, 1504.33, 2501.72, 2759.53, 2804.88]</t>
         </is>
       </c>
     </row>
@@ -15187,12 +13897,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>[24.82, 30.97, 9.79, 46.15, 18.21]</t>
-        </is>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>[3297.54, 2719.18, 776.79, 3674.7, 2175.32]</t>
+          <t>[1763.09, 1848.06, 500.99, 2543.05, 1239.68]</t>
         </is>
       </c>
     </row>
@@ -15234,7 +13939,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>[63.002438891930524, 67.5084936940074, 83.66884887075216, 78.00215877215844]</t>
+          <t>[67.35130801068506, 67.5084936940074, 83.66884887075216, 78.00215877215844]</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -15244,12 +13949,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>[34.42, 14.43, 31.24, 36.68]</t>
-        </is>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>[3258.78, 1512.03, 3403.7, 3314.2]</t>
+          <t>[2267.55, 1033.6, 2481.51, 2274.44]</t>
         </is>
       </c>
     </row>
@@ -15301,12 +14001,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>[23.7, 22.38, 17.49, 27.62, 36.65]</t>
-        </is>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>[2594.65, 2460.07, 2065.2, 2517.78, 3237.74]</t>
+          <t>[1717.08, 1474.02, 1187.41, 1502.54, 2221.52]</t>
         </is>
       </c>
     </row>
@@ -15348,7 +14043,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>[87.50615012315468, 87.10877811612251, 27.026898094931926, 33.721219343679365]</t>
+          <t>[89.81463125247541, 87.10877811612251, 27.25411488679896, 33.721219343679365]</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -15358,12 +14053,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>[34.2, 13.6, 61.78, 23.38]</t>
-        </is>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>[3914.28, 1675.87, 2018.23, 1298.02]</t>
+          <t>[2603.13, 1467.75, 1241.35, 847.48]</t>
         </is>
       </c>
     </row>
@@ -15405,7 +14095,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>[82.3599687975118, 101.25496740655392, 63.610318997617554, 73.30371591169654, 48.77278589565109]</t>
+          <t>[82.3599687975118, 101.25496740655392, 63.610318997617554, 73.30371591169654, 51.91519670160345]</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -15415,12 +14105,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>[42.47, 25.09, 82.33, 19.76, 20.92]</t>
-        </is>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>[3209.8, 2704.65, 4157.02, 2389.04, 1658.84]</t>
+          <t>[1950.34, 1882.26, 2511.85, 1421.83, 1197.49]</t>
         </is>
       </c>
     </row>
@@ -15462,7 +14147,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>[78.86391372020876, 77.28925940282522, 61.06432645060201, 62.00314332588221, 37.58519738757519]</t>
+          <t>[78.86391372020876, 77.28925940282522, 61.06432645060201, 62.00314332588221, 39.88340949174574]</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -15472,12 +14157,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>[26.78, 39.55, 38.49, 18.54, 15.77]</t>
-        </is>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>[2599.64, 2594.63, 3203.18, 1582.99, 1072.31]</t>
+          <t>[1714.72, 1745.45, 2387.35, 1045.86, 919.32]</t>
         </is>
       </c>
     </row>
@@ -15529,12 +14209,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>[20.6, 11.52, 15.21, 31.32, 37.77]</t>
-        </is>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>[2063.31, 1375.45, 2580.9, 1349.64, 4633.75]</t>
+          <t>[1401.84, 1072.21, 1946.81, 832.7, 3140.34]</t>
         </is>
       </c>
     </row>
@@ -15586,12 +14261,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>[10.92, 24.13, 13.35, 20.64]</t>
-        </is>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>[1451.19, 1131.67, 1339.74, 2288.32]</t>
+          <t>[939.66, 731.51, 1187.0, 1607.42]</t>
         </is>
       </c>
     </row>
@@ -15633,7 +14303,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>[88.66963164176448, 56.04773165251359, 66.81597835169788, 75.83411768101593]</t>
+          <t>[92.93873214481565, 64.74416052020732, 66.81597835169788, 75.83411768101593]</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -15643,12 +14313,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>[42.45, 25.08, 32.14, 39.99]</t>
-        </is>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>[4591.55, 2508.98, 2864.41, 3358.71]</t>
+          <t>[3017.48, 1816.39, 1963.55, 2159.3]</t>
         </is>
       </c>
     </row>
@@ -15690,7 +14355,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>[65.63662293155613, 64.54141868958624, 70.02037744934815, 34.37908675492494]</t>
+          <t>[65.63662293155613, 64.54141868958624, 70.02037744934815, 42.81570821784362]</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -15700,12 +14365,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>[11.87, 31.3, 15.88, 35.08]</t>
-        </is>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>[1792.51, 2216.52, 1498.03, 1794.78]</t>
+          <t>[944.15, 1562.63, 1080.82, 1239.06]</t>
         </is>
       </c>
     </row>
@@ -15747,7 +14407,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>[63.25391081793266, 72.82367344469768, 97.83875836752136, 53.85699622181186, 83.18288276327388]</t>
+          <t>[65.48719276425226, 72.82367344469768, 97.83875836752136, 53.85699622181186, 83.18288276327388]</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -15757,12 +14417,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>[14.18, 20.78, 12.92, 12.04, 37.17]</t>
-        </is>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>[1776.36, 1843.3, 2369.38, 1411.75, 2976.94]</t>
+          <t>[1155.6, 1248.47, 1706.56, 1076.92, 1777.99]</t>
         </is>
       </c>
     </row>
@@ -15804,7 +14459,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>[60.90163482827959, 96.11250123141372, 93.87118231453219, 109.56411352497003]</t>
+          <t>[70.16383932894892, 96.11250123141372, 93.87118231453219, 109.56411352497003]</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -15814,12 +14469,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>[23.59, 35.26, 55.39, 53.9]</t>
-        </is>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>[2280.36, 4178.5, 4937.04, 5121.34]</t>
+          <t>[1604.31, 2653.56, 3375.84, 3282.65]</t>
         </is>
       </c>
     </row>
@@ -15871,12 +14521,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>[33.61, 16.27, -1902226.63, 13.02, 22.32]</t>
-        </is>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>[3035.4, 2147.27, 2181.93, 1195.22, 1826.43]</t>
+          <t>[2026.57, 1249.77, 1979.78, 808.63, 1417.89]</t>
         </is>
       </c>
     </row>
@@ -15918,7 +14563,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>[50.24312354134072, 55.47360611191227, 39.878192381877895, 46.66567113454356, 47.57247947680062]</t>
+          <t>[50.24312354134072, 55.47360611191227, 48.08882811168373, 46.66567113454356, 47.57247947680062]</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -15928,12 +14573,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>[26.3, 23.1, 46.56, 26.01, 29.97]</t>
-        </is>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>[1832.66, 1612.2, 2605.52, 1368.06, 1478.62]</t>
+          <t>[1124.1, 1059.03, 1697.66, 881.81, 879.06]</t>
         </is>
       </c>
     </row>
@@ -15985,12 +14625,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>[22.59, 17.23, 24.15, 14.29]</t>
-        </is>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>[1559.05, 1443.94, 991.99, 1402.13]</t>
+          <t>[955.8, 885.73, 659.96, 780.22]</t>
         </is>
       </c>
     </row>
@@ -16042,12 +14677,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>[12.12, 16.24, 14.93, 18.87, 15.31]</t>
-        </is>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>[920.46, 835.8, 901.29, 809.41, 745.04]</t>
+          <t>[578.54, 477.18, 639.25, 599.46, 526.75]</t>
         </is>
       </c>
     </row>
@@ -16089,7 +14719,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>[46.43457444310501, 55.19299813932047, 45.99868585656514, 37.83849047980037, 47.56077904336809]</t>
+          <t>[46.43457444310501, 55.19299813932047, 45.99868585656514, 45.00842954336893, 47.56077904336809]</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -16099,12 +14729,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>[33.61, 23.78, 14.58, 35.34, 33.41]</t>
-        </is>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>[1907.13, 1847.38, 1513.93, 2204.37, 1714.88]</t>
+          <t>[1201.34, 1053.51, 858.78, 1435.0, 1025.25]</t>
         </is>
       </c>
     </row>
@@ -16156,12 +14781,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>[13.69, 37.0, 16.79, 27.26]</t>
-        </is>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>[1220.9, 1644.47, 1358.41, 1237.79]</t>
+          <t>[941.33, 911.99, 894.98, 761.27]</t>
         </is>
       </c>
     </row>
@@ -16203,7 +14823,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>[49.07059258251416, 34.581227798377455, 43.300768276921474, 48.51274967937045, 40.046004264686516]</t>
+          <t>[49.07059258251416, 34.581227798377455, 43.300768276921474, 48.51274967937045, 49.02916034566615]</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -16213,12 +14833,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>[21.57, 23.6, 24.99, 18.04, 44.47]</t>
-        </is>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>[1556.98, 1106.11, 1348.52, 1583.31, 2738.44]</t>
+          <t>[914.07, 699.55, 837.5, 1023.84, 1660.17]</t>
         </is>
       </c>
     </row>
@@ -16260,7 +14875,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>[49.73208016186208, 56.17176043761566, 58.00084220897916, 50.819944475453, 51.97089389843384]</t>
+          <t>[49.73208016186208, 56.17176043761566, 58.00084220897916, 60.91147181343532, 51.97089389843384]</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -16270,12 +14885,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>[32.53, 17.85, 24.43, 39.31, 17.97]</t>
-        </is>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>[1705.99, 1529.01, 1891.19, 3074.69, 1387.56]</t>
+          <t>[1080.57, 1066.76, 1199.02, 2009.28, 1012.05]</t>
         </is>
       </c>
     </row>
@@ -16327,12 +14937,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>[34.26, 23.27, 22.67, 21.34]</t>
-        </is>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>[1796.61, 1418.17, 1389.94, 1517.73]</t>
+          <t>[1112.97, 895.56, 977.98, 1019.82]</t>
         </is>
       </c>
     </row>
@@ -16384,12 +14989,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>[28.97, 21.74, 28.1, 28.07]</t>
-        </is>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>[1670.42, 1559.52, 1435.46, 1431.69]</t>
+          <t>[1081.24, 960.3, 927.6, 942.02]</t>
         </is>
       </c>
     </row>
@@ -16441,12 +15041,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>[24.36, 29.08, 15.5]</t>
-        </is>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>[1366.45, 1677.22, 1375.02]</t>
+          <t>[899.08, 996.4, 791.19]</t>
         </is>
       </c>
     </row>
@@ -16488,7 +15083,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>[44.27727036355917, 51.55442040326368, 38.175384900348526, 47.26140829645107, 44.33448034540827]</t>
+          <t>[44.27727036355917, 51.55442040326368, 47.52520957221866, 47.26140829645107, 44.33448034540827]</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -16498,12 +15093,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>[24.63, 29.01, 46.26, 20.58, 31.19]</t>
-        </is>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>[1439.38, 1690.55, 2648.9, 1403.88, 1496.01]</t>
+          <t>[928.55, 1030.32, 1786.18, 849.61, 908.11]</t>
         </is>
       </c>
     </row>
@@ -16545,7 +15135,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>[30.892863115485085, 42.56879730187207, 47.97632907718243, 46.41476514837381, 46.64547688838108]</t>
+          <t>[33.96710712037723, 42.56879730187207, 47.97632907718243, 46.41476514837381, 46.64547688838108]</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -16555,12 +15145,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>[34.52, 17.55, 19.14, 25.72, 22.28]</t>
-        </is>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>[1543.94, 1021.23, 1384.7, 1386.29, 1410.46]</t>
+          <t>[921.7, 610.9, 974.46, 872.99, 920.43]</t>
         </is>
       </c>
     </row>
@@ -16612,12 +15197,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>[23.28, 21.54, 21.94, 26.33, 22.39]</t>
-        </is>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>[1300.02, 1150.4, 1492.45, 1614.12, 1083.92]</t>
+          <t>[819.0, 785.9, 859.3, 931.84, 712.79]</t>
         </is>
       </c>
     </row>
@@ -16669,12 +15249,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>[30.04, 22.1, 24.52, 13.16, 19.21]</t>
-        </is>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>[1934.74, 1261.22, 1266.08, 915.38, 1103.49]</t>
+          <t>[1190.82, 853.5, 783.13, 542.52, 765.46]</t>
         </is>
       </c>
     </row>
@@ -16726,12 +15301,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>[73.99, 34.53, 15.12, 21.27, 24.74]</t>
-        </is>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>[4857.97, 1633.63, 1375.49, 1376.11, 1301.09]</t>
+          <t>[2964.5, 1038.03, 864.29, 750.31, 824.92]</t>
         </is>
       </c>
     </row>
@@ -16783,12 +15353,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>[22.61, 16.56, 29.6]</t>
-        </is>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>[1373.42, 1382.24, 1171.08]</t>
+          <t>[898.96, 689.61, 770.16]</t>
         </is>
       </c>
     </row>
@@ -16840,12 +15405,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>[20.08, 22.27, 14.28, 34.08]</t>
-        </is>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>[1644.6, 1335.88, 1100.61, 1629.09]</t>
+          <t>[1073.4, 936.58, 784.39, 1009.38]</t>
         </is>
       </c>
     </row>
@@ -16897,12 +15457,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>[18.73, 23.03, 19.83, 27.29]</t>
-        </is>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>[1374.58, 1611.43, 1301.57, 1311.22]</t>
+          <t>[854.74, 1057.47, 849.56, 842.1]</t>
         </is>
       </c>
     </row>
@@ -16954,12 +15509,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>[31.53, 44.78, 15.53, 17.22, 24.27]</t>
-        </is>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>[1529.84, 2534.6, 1379.61, 1184.79, 2073.9]</t>
+          <t>[1046.66, 1683.52, 915.29, 844.64, 1226.15]</t>
         </is>
       </c>
     </row>
@@ -17011,12 +15561,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>[33.15, 22.19, 27.04, 47.85, 20.13]</t>
-        </is>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>[1343.23, 1788.16, 1635.02, 3070.82, 888.06]</t>
+          <t>[870.7, 1157.9, 1002.57, 1763.49, 612.72]</t>
         </is>
       </c>
     </row>
@@ -17068,12 +15613,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>[23.33, 14.93, 17.48, 17.26, 17.93]</t>
-        </is>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>[1046.58, 1065.25, 1116.72, 1048.2, 1255.31]</t>
+          <t>[669.71, 653.34, 756.99, 662.96, 724.1]</t>
         </is>
       </c>
     </row>
@@ -17125,12 +15665,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>[51.98, 32.08, 25.75, 22.41, 21.17]</t>
-        </is>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>[3412.2, 2181.1, 1667.7, 1827.92, 1044.75]</t>
+          <t>[2170.09, 1378.59, 1072.99, 1160.31, 656.24]</t>
         </is>
       </c>
     </row>
@@ -17182,12 +15717,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>[38.52, 56.53, 21.38, 36.89, 31.54]</t>
-        </is>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>[1648.14, 2555.23, 1003.08, 873.24, 890.27]</t>
+          <t>[1029.36, 1647.03, 681.72, 567.81, 583.85]</t>
         </is>
       </c>
     </row>
@@ -17239,12 +15769,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>[24.1, 36.91, 33.98, 19.27]</t>
-        </is>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>[1466.73, 1489.24, 1839.71, 1376.38]</t>
+          <t>[865.14, 1011.16, 1210.45, 955.98]</t>
         </is>
       </c>
     </row>
@@ -17286,7 +15811,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>[29.272113127876672, 35.616007050100755, 51.928061510807936, 37.706867209913284]</t>
+          <t>[29.272113127876672, 36.099343205920704, 51.928061510807936, 37.706867209913284]</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -17296,12 +15821,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>[40.13, 21.33, 22.4, 39.85]</t>
-        </is>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>[1536.94, 1320.96, 1556.31, 2407.14]</t>
+          <t>[903.14, 968.21, 1017.39, 1528.52]</t>
         </is>
       </c>
     </row>
@@ -17353,12 +15873,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>[56.17, 26.39, 52.99, 16.59, 22.25]</t>
-        </is>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>[2534.15, 1660.56, 3155.82, 737.75, 1409.48]</t>
+          <t>[1541.0, 1057.01, 2053.63, 470.89, 851.55]</t>
         </is>
       </c>
     </row>
@@ -17410,12 +15925,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>[25.21, 47.56, 22.15, 17.93]</t>
-        </is>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>[1478.75, 1853.74, 1273.83, 1194.12]</t>
+          <t>[885.79, 1092.93, 868.33, 775.47]</t>
         </is>
       </c>
     </row>
@@ -17457,7 +15967,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>[40.73852513861852, 25.959766117198814, 18.838480057669845]</t>
+          <t>[42.33322680677477, 25.959766117198814, 19.524817423849516]</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -17467,12 +15977,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>[37.23, 21.34, 19.02]</t>
-        </is>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>[1951.02, 753.88, 802.34]</t>
+          <t>[1318.39, 504.6, 547.38]</t>
         </is>
       </c>
     </row>
@@ -17514,7 +16019,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>[36.08686016492023, 4.918848123877263, 46.52574332088657, 48.28605990576855]</t>
+          <t>[36.08686016492023, 6.479415599339453, 46.52574332088657, 48.28605990576855]</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -17524,12 +16029,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>[31.41, 35.97, 25.3, 14.73]</t>
-        </is>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>[1690.47, 562.24, 1523.5, 1168.99]</t>
+          <t>[1112.88, 338.79, 988.87, 693.49]</t>
         </is>
       </c>
     </row>
@@ -17581,12 +16081,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>[27.92, 18.72, 21.23, 21.86]</t>
-        </is>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>[1338.79, 1366.75, 1156.77, 1245.97]</t>
+          <t>[887.63, 846.1, 794.3, 816.08]</t>
         </is>
       </c>
     </row>
@@ -17638,12 +16133,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>[17.37, 31.87, 26.94, 15.91]</t>
-        </is>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>[890.76, 1219.96, 1463.2, 1396.2]</t>
+          <t>[566.36, 789.22, 902.1, 786.32]</t>
         </is>
       </c>
     </row>
@@ -17695,12 +16185,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>[33.79, 22.39, 29.7, 28.55, 9.35]</t>
-        </is>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>[1363.81, 908.81, 1979.55, 550.25, 1526.19]</t>
+          <t>[884.36, 600.37, 1257.99, 346.98, 1032.29]</t>
         </is>
       </c>
     </row>
@@ -17752,12 +16237,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>[27.03, 20.79, 7.97, 19.41]</t>
-        </is>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>[1241.23, 1018.29, 735.76, 1209.05]</t>
+          <t>[772.45, 619.16, 419.42, 795.02]</t>
         </is>
       </c>
     </row>
@@ -17809,12 +16289,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>[41.57, 18.61, 28.6, 20.88]</t>
-        </is>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>[1465.29, 1351.52, 1229.92, 1689.95]</t>
+          <t>[959.86, 751.64, 828.92, 1161.3]</t>
         </is>
       </c>
     </row>
@@ -17856,7 +16331,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>[26.697149473677893, 36.328778818691646, 36.78959661085996, 38.03859802174037, 34.24733833384139]</t>
+          <t>[26.697149473677893, 37.001945138657334, 36.78959661085996, 38.03859802174037, 34.24733833384139]</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -17866,12 +16341,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>[32.63, 40.12, 33.03, 42.45, 23.0]</t>
-        </is>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>[1106.22, 2045.6, 1383.32, 1608.05, 1484.66]</t>
+          <t>[751.25, 1287.25, 908.79, 931.71, 865.09]</t>
         </is>
       </c>
     </row>
@@ -17923,12 +16393,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>[29.01, 29.09, 25.11, 13.53, 21.16]</t>
-        </is>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>[1147.62, 1315.92, 1562.51, 894.76, 1485.73]</t>
+          <t>[797.32, 930.46, 1048.6, 596.74, 873.52]</t>
         </is>
       </c>
     </row>
@@ -17980,12 +16445,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>[58.47, 20.56, 14.6, 17.34, 19.09]</t>
-        </is>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>[5964.5, 2174.97, 1925.46, 2607.35, 2218.26]</t>
+          <t>[3971.22, 1331.46, 1139.77, 1694.95, 1562.23]</t>
         </is>
       </c>
     </row>
@@ -18027,7 +16487,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>[57.2457110551956, 43.9596559558626, 85.5443462773504, 49.20945923522311]</t>
+          <t>[57.2457110551956, 43.9596559558626, 85.5443462773504, 49.580839158724494]</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -18037,12 +16497,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>[20.24, 29.27, 40.7, 16.04]</t>
-        </is>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>[2498.37, 3334.63, 4303.53, 2651.52]</t>
+          <t>[1603.71, 1878.48, 2842.56, 1739.29]</t>
         </is>
       </c>
     </row>
@@ -18094,12 +16549,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>[38.94, 36.32, 40.16, 21.39, 36.86]</t>
-        </is>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>[3687.82, 3519.41, 3190.72, 1883.3, 1632.7]</t>
+          <t>[2352.76, 2324.28, 2013.37, 1350.48, 1039.43]</t>
         </is>
       </c>
     </row>
@@ -18141,7 +16591,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>[58.135006463283105, 31.08860863557372, 20.76157369483619, 48.862020760221505, 59.242639353910924]</t>
+          <t>[120.40725590392015, 31.08860863557372, 20.76157369483619, 51.628102776073945, 59.242639353910924]</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -18151,12 +16601,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>[26.99, 14.68, 20.51, 23.17, 19.83]</t>
-        </is>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>[4245.61, 1837.22, 1518.4, 2069.84, 2169.15]</t>
+          <t>[3142.61, 1187.09, 925.95, 1291.22, 1408.48]</t>
         </is>
       </c>
     </row>
@@ -18198,7 +16643,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>[65.89334403066414, 59.37665476716863, 96.32355637596511, 70.71988460850342, 60.409884090203704]</t>
+          <t>[81.75776307937315, 59.37665476716863, 96.32355637596511, 70.71988460850342, 60.409884090203704]</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -18208,12 +16653,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>[32.82, 35.98, 36.63, 18.7, 22.97]</t>
-        </is>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>[3639.17, 3087.4, 4345.05, 4073.92, 1938.24]</t>
+          <t>[2411.95, 2036.42, 2886.74, 2243.86, 1215.61]</t>
         </is>
       </c>
     </row>
@@ -18255,7 +16695,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>[78.72095325531586, 44.48464974447506, 55.607620001420244, 59.818818017923405]</t>
+          <t>[78.72095325531586, 45.68986910042533, 55.607620001420244, 59.818818017923405]</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -18265,12 +16705,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>[47.66, 22.62, 33.05, 16.91]</t>
-        </is>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>[4856.83, 2077.89, 2891.42, 1880.85]</t>
+          <t>[3240.27, 1487.37, 2045.86, 1444.19]</t>
         </is>
       </c>
     </row>
@@ -18322,12 +16757,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>[25.38, 47.57, 23.84, 19.33, 36.97]</t>
-        </is>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>[1882.69, 4740.32, 1949.56, 1574.78, 4230.98]</t>
+          <t>[1273.82, 3136.12, 1244.24, 932.38, 2749.19]</t>
         </is>
       </c>
     </row>
@@ -18379,12 +16809,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>[39.6, 40.08, 41.59, 15.78]</t>
-        </is>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>[4410.59, 3906.69, 4497.54, 1763.36]</t>
+          <t>[2681.84, 2427.31, 2991.05, 1094.92]</t>
         </is>
       </c>
     </row>
@@ -18426,7 +16851,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>[97.13758299578133, 54.904378218281394, 24.795116450062572, 53.2402403887806, 24.685914861523337]</t>
+          <t>[97.13758299578133, 54.904378218281394, 24.795116450062572, 54.46773190827057, 24.685914861523337]</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -18436,12 +16861,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>[25.77, 21.73, 31.86, 26.78, 23.04]</t>
-        </is>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>[3015.62, 2251.21, 1231.65, 2278.75, 1382.82]</t>
+          <t>[2034.49, 1469.67, 765.51, 1567.75, 840.99]</t>
         </is>
       </c>
     </row>
@@ -18493,12 +16913,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>[51.4, 13.94, 14.04, 3.66]</t>
-        </is>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>[5131.39, 1520.99, 1281.47, 2161.53]</t>
+          <t>[3371.23, 993.33, 799.64, 1182.42]</t>
         </is>
       </c>
     </row>
@@ -18550,12 +16965,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>[40.58, 16.65, 24.08, 36.64]</t>
-        </is>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>[3492.54, 1670.85, 1623.25, 3857.84]</t>
+          <t>[2386.39, 940.33, 1118.81, 2465.9]</t>
         </is>
       </c>
     </row>
@@ -18607,12 +17017,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>[88.44, 41.14, 47.53, 11.7]</t>
-        </is>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>[1481.93, 3615.05, 5246.37, 1491.33]</t>
+          <t>[829.45, 2378.91, 3465.1, 1072.89]</t>
         </is>
       </c>
     </row>
@@ -18654,7 +17059,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>[42.04662175375441, 38.91773836907518, 119.00949593850072, 45.18031608718521]</t>
+          <t>[46.3442501813324, 46.09751491962852, 119.00949593850072, 45.18031608718521]</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -18664,12 +17069,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>[43.57, 26.27, 31.63, 11.69]</t>
-        </is>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>[2638.62, 2163.51, 3481.29, 2273.76]</t>
+          <t>[1649.52, 1562.46, 2289.9, 1454.65]</t>
         </is>
       </c>
     </row>
@@ -18711,7 +17111,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>[89.29709522015271, 27.503849295265052, 31.847065971846902, 63.530875320072646, 21.18109784991419]</t>
+          <t>[89.29709522015271, 28.66789684093662, 31.847065971846902, 63.530875320072646, 21.18109784991419]</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -18721,12 +17121,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>[45.27, 37.18, 15.27, 37.78, 5.58]</t>
-        </is>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>[5658.05, 1564.99, 1768.98, 3911.73, 1351.06]</t>
+          <t>[3757.64, 1065.87, 1032.48, 2692.59, 865.47]</t>
         </is>
       </c>
     </row>
@@ -18768,7 +17163,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>[82.19510425581146, 79.30650179508116, 16.106439373491998, 23.344952568994742, 23.55443951653787]</t>
+          <t>[85.04429012164658, 80.0186420159745, 16.106439373491998, 23.344952568994742, 23.55443951653787]</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -18778,12 +17173,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>[40.25, 37.42, 5771589.77, 20.53, 23.45]</t>
-        </is>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>[4769.4, 4307.64, 2796.14, 1621.12, 1562.94]</t>
+          <t>[2950.2, 2715.66, 1560.72, 1043.63, 891.73]</t>
         </is>
       </c>
     </row>
@@ -18835,12 +17225,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>[15.98, 29.4, 13.22]</t>
-        </is>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>[2168.15, 2162.08, 1505.23]</t>
+          <t>[1365.02, 1478.97, 1019.5]</t>
         </is>
       </c>
     </row>
@@ -18882,7 +17267,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>[43.27867351560506, 92.39320314704983, 51.02067354043928, 46.566116405550304, 29.358900304804372]</t>
+          <t>[43.27867351560506, 92.39320314704983, 51.02067354043928, 46.566116405550304, 31.720409291754947]</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -18892,12 +17277,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>[20.79, 43.4, 17.9, 22.78, 22.15]</t>
-        </is>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>[1896.75, 4803.51, 1448.48, 1805.5, 1976.18]</t>
+          <t>[1270.58, 2959.69, 944.19, 1215.45, 1302.87]</t>
         </is>
       </c>
     </row>
@@ -18949,12 +17329,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>[46.63, 28.18, 11.41]</t>
-        </is>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>[4546.69, 2830.27, 1059.44]</t>
+          <t>[2948.61, 1871.98, 697.23]</t>
         </is>
       </c>
     </row>
